--- a/mallet/30_AM.xlsx
+++ b/mallet/30_AM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apovzner\Documents\Hakluyt\mallet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC1064E-F9A7-43D1-930D-30EE4B298090}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C5617B-D1A5-4905-AA73-EDA1556BC7B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="10695" xr2:uid="{468B4E7C-0EDA-419C-AC8A-BFE265156530}"/>
   </bookViews>
@@ -1606,7 +1606,7 @@
   <dimension ref="A1:AF590"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/mallet/30_AM.xlsx
+++ b/mallet/30_AM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apovzner\Documents\Hakluyt\mallet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C5617B-D1A5-4905-AA73-EDA1556BC7B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B05029-0DBD-43ED-AF6D-B2E7D4B8501B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26970" windowHeight="10695" xr2:uid="{468B4E7C-0EDA-419C-AC8A-BFE265156530}"/>
   </bookViews>
@@ -27,30 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="261">
   <si>
     <t xml:space="preserve">say heir time assign land person grant sir humphrey subject law successor country england realm make inhabit give walter territory present ralegh government power licence associate lawful possess christian authority contrary voyage convenient free patent letter place enjoy act port good accord protection adrian minister allegiance passage hold manner privilege </t>
-  </si>
-  <si>
-    <t xml:space="preserve">spaniard mexico say call city spain saint year john port come town indians league king viceroy house time stand month indies space ullua god negro prison church fleet jesus day keep fair indian minion spanish serve money number friar travel use land nova hispania way province tribute command pay burn </t>
   </si>
   <si>
     <t xml:space="preserve">john master thomas isle william briton savage voyage cape richard bristol henry island bay newfoundland say certain robert penguin saint ship andrew port merchant laurence charles edward english hakluyt arrive george cod cost shallop worshipful brasil april james fir ramea michael shore london train peter ton malo hogshead mate strait </t>
   </si>
   <si>
-    <t xml:space="preserve">town captain stand saint spaniard march place cape fort sir fire indies fleet ordinance take enemy small depart burn galley isle generali bay stay caravel frigate general shot ton dominica ransom people jamaica domingo april anthony sight soldier pike prisoner plymouth vice-admiral lieutenant city iago force florida george governor diverse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">come river see give people man woman make bring tell house take show old thing answer lord great understand call certain sun dwell arm sign ask say carry speak day company rest know far leave war cry stay child young desire boat bow victual save apparel begin seem broad together </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ship river town spaniard come majesty call great coast peru place king say city country land send build gold silver harbour strait spain store panama captain league indians way soldier englishman lie mountain fort people man negro drake take carry house inhabit island english treasure rich side year bring sail </t>
-  </si>
-  <si>
     <t xml:space="preserve">quod tibi quibus tua tot jam sit mihi aurum urbe fine sceptra quasi hominum orbem virtus tempore vela qudd illa deus arguit aurea illo virtute orbe sine magno tanta nova tellus haec quot flumina sola posse auro bello legibus sanguine nullis regio ventis moenia fortuna vix locum tuum passim anglia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">send portugal four santos negro sell river captain twenty six frenchman indians traffic hawkins ducat commodity fine skiff plate dozen day request sugar governor merchant profit minion london trade dinner sierra buy licence voyage parker leona jesus treasurer talk maddox hulk fifteen yard baya walker barrel price pound assistant jenero </t>
   </si>
   <si>
     <t xml:space="preserve">land come see great day water find sail island shore take side wind near make league coast place night boat small certain hand ship run call begin far wood good captain pass say anchor ground high hill four break follow lie twenty set point sight main stay depart way seem </t>
@@ -62,16 +47,10 @@
     <t xml:space="preserve">year first discovery country far majesty discover people part england commodity nation prince plant diverse land trade coast time god less knowledge right common attempt worthy follow sundry seem live appear adventure possession benefit english north late action traffic since report world sir success relation profit easy particular proceed noble </t>
   </si>
   <si>
-    <t xml:space="preserve">king fort soldier river indians captain france cause paracoussy indian discover utina village victual ribault savage embark florida sail send monsieur league bark advertise enterprise enemy pray spaniard silver french space satourioua vasseur exceed lieutenant desire retire subject wood gourgues sergeant constrain succour distant certain nevertheless build promise content command </t>
-  </si>
-  <si>
     <t xml:space="preserve">ice sun heat sound cold night danger equinoctial fleet company seem lie captain cause degree snow force generali summer sundry long horizon strait hand anne harbour pole people mountain first bear together july straight countess rock freeze ore prove region michael tent england suppose continual francis year meta hour frobisher </t>
   </si>
   <si>
     <t xml:space="preserve">virginia england savage leave town governor roanoak sir company corn supply hand planter mile croatoan lane colony ralegh walter victuali discovery hope july helena mangoak chawanook copper ferdinando king pemisapan action richard purpose manteo menatonon ralph savages flyboat sow dwell main hatorask johns starve fifteen raise sundry saint prepare tyburon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">say captain ship man canada france river donnacona saguenay hochelaga come taignoagny boat country bring lord month goodly name port wild saint cause show domagaia fort possible fault monsieur cartier child hear cross chap cape town roberval knife bird stay stadacona malo snow lake glad shelf dangerous jaques beyond june </t>
   </si>
   <si>
     <t xml:space="preserve">part passage america way north west coast find land northwest experience prove east reason degree sail asia portugal world africa far navigation voyage north-east current europe card king india know island mar great fret gulf map affirm cataia cap indies wind travel opinion discovery indians motion cape open lib writer </t>
@@ -98,9 +77,6 @@
     <t xml:space="preserve">fleet english pilot take spanish lie ship generali bernaldino mass indies drake piloto letter fight army armada sir india navios puerto spain king accord francis examine navy mayor number contractation general major print dios reader mar order pilotos avellaneda delgadillo jenero despue write tomar luego puede alii register vice-admiral course </t>
   </si>
   <si>
-    <t xml:space="preserve">ship come man day aboard generali boat take admiral night master pinnace sail company anchor shore clock set water morning harbour captain fleet shoot send meet give england bring bark fresh john victual shot english portugal wind present time find piece keep lose weigh hand spaniard lade first tell ton </t>
-  </si>
-  <si>
     <t xml:space="preserve">great war kingdom lord city castle japan quabacondono coray man governor augustine china friar house father certain king antonio nicolo frisland small pay tribute zichmni determine town fleet miac soldier island province letter grande mighty estotiland christian remain japonians army portugal honour nangoia monastery zeno broad arm garrison government norway </t>
   </si>
   <si>
@@ -111,9 +87,6 @@
   </si>
   <si>
     <t xml:space="preserve">indians arwaccas raleana charibe canoas laos dwell inform mouth get gold rich ternate stop nova language sceptre albion general sit cacafuego shebaios moruga tobacco cawo gualtero barima eye money name age dessekebe caribe hate princely smooth peace valour sense observe raja barateve mawranamo coritine marrac marawinne chiana carepini cassanari curitini </t>
-  </si>
-  <si>
-    <t xml:space="preserve">river guiana spaniard call gold berreo nation trinidad orenoque far province town mile mountain indian captain rest return empire indies branch peru way fall dorado west carapana know amazones canoas enter mouth people time nuevo spanish manoa lord indians trade king morequito side kingdom diverse year enemy abundance port city </t>
   </si>
   <si>
     <t xml:space="preserve">cape west see land isle call island lie high hill south north degree come east stir coast mark saint southwest low point course side cabo certain keep white sight league rio northwest cruz havana fathom river bay say make sand sail juan stand puerto rock sant sierras fall bring round </t>
@@ -796,15 +769,761 @@
   <si>
     <t>lng_Sp_col</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">river guiana spaniard call gold berreo nation trinidad orenoque far province town mile mountain indian captain rest return empire indies branch peru way fall dorado west carapana know amazones canoas enter mouth people time nuevo spanish manoa lord indians trade king morequito side kingdom diverse year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enemy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> abundance port city </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">say captain ship man canada france river donnacona saguenay hochelaga come taignoagny boat country bring lord month goodly name port wild saint cause show domagaia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> possible fault monsieur cartier child hear cross chap cape town roberval knife bird stay stadacona malo snow lake glad shelf dangerous jaques beyond june </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">king fort soldier river </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> captain </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>france</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cause paracoussy indian discover utina village victual ribault savage embark florida sail send monsieur league bark advertise enterprise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enemy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pray </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spaniard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> silver </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>french</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> space satourioua vasseur exceed lieutenant desire retire subject wood gourgues sergeant constrain succour distant certain nevertheless build promise content command </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">send </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>portugal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> four santos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>negro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sell river captain twenty six </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>frenchman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> traffic hawkins ducat commodity fine skiff plate dozen day request </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sugar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> governor merchant profit minion london trade dinner sierra buy licence voyage parker leona jesus treasurer talk maddox hulk fifteen yard baya walker barrel price pound assistant jenero </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ship river town </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spaniard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> come majesty call great coast peru place king say city country land send build gold silver harbour strait spain store panama captain league </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> way </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>soldier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>englishman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lie mountain </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> people man </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>negro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>drake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> take carry house inhabit island english treasure rich side year bring sail </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">town captain stand saint </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spaniard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> march place cape fort sir </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> indies fleet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ordinance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">take enemy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">small depart burn galley isle generali bay stay caravel frigate general </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ton dominica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ransom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> people jamaica domingo april anthony sight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">soldier pike prisoner </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">plymouth vice-admiral lieutenant city iago force florida george governor diverse </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">spaniard mexico say call city spain saint year john port come town indians league king viceroy house time stand month indies space ullua god </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>negro prison</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> church fleet jesus day keep fair indian minion spanish serve money number friar travel use land nova hispania way province tribute command pay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>burn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ship come man day aboard generali boat take admiral night master pinnace sail company anchor shore clock set water morning harbour captain fleet shoot send meet give </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>england</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bring bark fresh john victual shot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>english</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>portugal</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wind present time find piece keep lose weigh hand </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spaniard</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lade first tell ton </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">come river see give people man woman make bring tell house take show old thing answer lord great understand call certain sun dwell arm sign ask say carry speak day company rest know far leave </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>war</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cry stay child young desire boat bow victual save apparel begin seem broad together </t>
+    </r>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,13 +1539,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -841,12 +1588,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,440 +1920,3744 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755A0F22-9D7C-42BD-B5D6-308444EEE854}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:GI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="191" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.99441999999999997</v>
+      </c>
+      <c r="C2" s="5">
+        <f>B2/4.43</f>
+        <v>0.22447404063205417</v>
+      </c>
+      <c r="D2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:191" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.48460999999999999</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B3/4.43</f>
+        <v>0.10939277652370204</v>
+      </c>
+      <c r="D3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BT3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="2"/>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CF3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CH3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="2"/>
+      <c r="CL3" s="2"/>
+      <c r="CM3" s="2"/>
+      <c r="CN3" s="2"/>
+      <c r="CO3" s="2"/>
+      <c r="CP3" s="2"/>
+      <c r="CQ3" s="2"/>
+      <c r="CR3" s="2"/>
+      <c r="CS3" s="2"/>
+      <c r="CT3" s="2"/>
+      <c r="CU3" s="2"/>
+      <c r="CV3" s="2"/>
+      <c r="CW3" s="2"/>
+      <c r="CX3" s="2"/>
+      <c r="CY3" s="2"/>
+      <c r="CZ3" s="2"/>
+      <c r="DA3" s="2"/>
+      <c r="DB3" s="2"/>
+      <c r="DC3" s="2"/>
+      <c r="DD3" s="2"/>
+      <c r="DE3" s="2"/>
+      <c r="DF3" s="2"/>
+      <c r="DG3" s="2"/>
+      <c r="DH3" s="2"/>
+      <c r="DI3" s="2"/>
+      <c r="DJ3" s="2"/>
+      <c r="DK3" s="2"/>
+      <c r="DL3" s="2"/>
+      <c r="DM3" s="2"/>
+      <c r="DN3" s="2"/>
+      <c r="DO3" s="2"/>
+      <c r="DP3" s="2"/>
+      <c r="DQ3" s="2"/>
+      <c r="DR3" s="2"/>
+      <c r="DS3" s="2"/>
+      <c r="DT3" s="2"/>
+      <c r="DU3" s="2"/>
+      <c r="DV3" s="2"/>
+      <c r="DW3" s="2"/>
+      <c r="DX3" s="2"/>
+      <c r="DY3" s="2"/>
+      <c r="DZ3" s="2"/>
+      <c r="EA3" s="2"/>
+      <c r="EB3" s="2"/>
+      <c r="EC3" s="2"/>
+      <c r="ED3" s="2"/>
+      <c r="EE3" s="2"/>
+      <c r="EF3" s="2"/>
+      <c r="EG3" s="2"/>
+      <c r="EH3" s="2"/>
+      <c r="EI3" s="2"/>
+      <c r="EJ3" s="2"/>
+      <c r="EK3" s="2"/>
+      <c r="EL3" s="2"/>
+      <c r="EM3" s="2"/>
+      <c r="EN3" s="2"/>
+      <c r="EO3" s="2"/>
+      <c r="EP3" s="2"/>
+      <c r="EQ3" s="2"/>
+      <c r="ER3" s="2"/>
+      <c r="ES3" s="2"/>
+      <c r="ET3" s="2"/>
+      <c r="EU3" s="2"/>
+      <c r="EV3" s="2"/>
+      <c r="EW3" s="2"/>
+      <c r="EX3" s="2"/>
+      <c r="EY3" s="2"/>
+      <c r="EZ3" s="2"/>
+      <c r="FA3" s="2"/>
+      <c r="FB3" s="2"/>
+      <c r="FC3" s="2"/>
+      <c r="FD3" s="2"/>
+      <c r="FE3" s="2"/>
+      <c r="FF3" s="2"/>
+      <c r="FG3" s="2"/>
+      <c r="FH3" s="2"/>
+      <c r="FI3" s="2"/>
+      <c r="FJ3" s="2"/>
+      <c r="FK3" s="2"/>
+      <c r="FL3" s="2"/>
+      <c r="FM3" s="2"/>
+      <c r="FN3" s="2"/>
+      <c r="FO3" s="2"/>
+      <c r="FP3" s="2"/>
+      <c r="FQ3" s="2"/>
+      <c r="FR3" s="2"/>
+      <c r="FS3" s="2"/>
+      <c r="FT3" s="2"/>
+      <c r="FU3" s="2"/>
+      <c r="FV3" s="2"/>
+      <c r="FW3" s="2"/>
+      <c r="FX3" s="2"/>
+      <c r="FY3" s="2"/>
+      <c r="FZ3" s="2"/>
+      <c r="GA3" s="2"/>
+      <c r="GB3" s="2"/>
+      <c r="GC3" s="2"/>
+      <c r="GD3" s="2"/>
+      <c r="GE3" s="2"/>
+      <c r="GF3" s="2"/>
+      <c r="GG3" s="2"/>
+      <c r="GH3" s="2"/>
+      <c r="GI3" s="2"/>
+    </row>
+    <row r="4" spans="1:191" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.38463000000000003</v>
+      </c>
+      <c r="C4" s="5">
+        <f>B4/4.43</f>
+        <v>8.6823927765237036E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+      <c r="CT4" s="2"/>
+      <c r="CU4" s="2"/>
+      <c r="CV4" s="2"/>
+      <c r="CW4" s="2"/>
+      <c r="CX4" s="2"/>
+      <c r="CY4" s="2"/>
+      <c r="CZ4" s="2"/>
+      <c r="DA4" s="2"/>
+      <c r="DB4" s="2"/>
+      <c r="DC4" s="2"/>
+      <c r="DD4" s="2"/>
+      <c r="DE4" s="2"/>
+      <c r="DF4" s="2"/>
+      <c r="DG4" s="2"/>
+      <c r="DH4" s="2"/>
+      <c r="DI4" s="2"/>
+      <c r="DJ4" s="2"/>
+      <c r="DK4" s="2"/>
+      <c r="DL4" s="2"/>
+      <c r="DM4" s="2"/>
+      <c r="DN4" s="2"/>
+      <c r="DO4" s="2"/>
+      <c r="DP4" s="2"/>
+      <c r="DQ4" s="2"/>
+      <c r="DR4" s="2"/>
+      <c r="DS4" s="2"/>
+      <c r="DT4" s="2"/>
+      <c r="DU4" s="2"/>
+      <c r="DV4" s="2"/>
+      <c r="DW4" s="2"/>
+      <c r="DX4" s="2"/>
+      <c r="DY4" s="2"/>
+      <c r="DZ4" s="2"/>
+      <c r="EA4" s="2"/>
+      <c r="EB4" s="2"/>
+      <c r="EC4" s="2"/>
+      <c r="ED4" s="2"/>
+      <c r="EE4" s="2"/>
+      <c r="EF4" s="2"/>
+      <c r="EG4" s="2"/>
+      <c r="EH4" s="2"/>
+      <c r="EI4" s="2"/>
+      <c r="EJ4" s="2"/>
+      <c r="EK4" s="2"/>
+      <c r="EL4" s="2"/>
+      <c r="EM4" s="2"/>
+      <c r="EN4" s="2"/>
+      <c r="EO4" s="2"/>
+      <c r="EP4" s="2"/>
+      <c r="EQ4" s="2"/>
+      <c r="ER4" s="2"/>
+      <c r="ES4" s="2"/>
+      <c r="ET4" s="2"/>
+      <c r="EU4" s="2"/>
+      <c r="EV4" s="2"/>
+      <c r="EW4" s="2"/>
+      <c r="EX4" s="2"/>
+      <c r="EY4" s="2"/>
+      <c r="EZ4" s="2"/>
+      <c r="FA4" s="2"/>
+      <c r="FB4" s="2"/>
+      <c r="FC4" s="2"/>
+      <c r="FD4" s="2"/>
+      <c r="FE4" s="2"/>
+      <c r="FF4" s="2"/>
+      <c r="FG4" s="2"/>
+      <c r="FH4" s="2"/>
+      <c r="FI4" s="2"/>
+      <c r="FJ4" s="2"/>
+      <c r="FK4" s="2"/>
+      <c r="FL4" s="2"/>
+      <c r="FM4" s="2"/>
+      <c r="FN4" s="2"/>
+      <c r="FO4" s="2"/>
+      <c r="FP4" s="2"/>
+      <c r="FQ4" s="2"/>
+      <c r="FR4" s="2"/>
+      <c r="FS4" s="2"/>
+      <c r="FT4" s="2"/>
+      <c r="FU4" s="2"/>
+      <c r="FV4" s="2"/>
+      <c r="FW4" s="2"/>
+      <c r="FX4" s="2"/>
+      <c r="FY4" s="2"/>
+      <c r="FZ4" s="2"/>
+      <c r="GA4" s="2"/>
+      <c r="GB4" s="2"/>
+      <c r="GC4" s="2"/>
+      <c r="GD4" s="2"/>
+      <c r="GE4" s="2"/>
+      <c r="GF4" s="2"/>
+      <c r="GG4" s="2"/>
+      <c r="GH4" s="2"/>
+      <c r="GI4" s="2"/>
+    </row>
+    <row r="5" spans="1:191" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.38346999999999998</v>
+      </c>
+      <c r="C5" s="6">
+        <f>B5/4.43</f>
+        <v>8.6562076749435668E-2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="2"/>
+      <c r="BV5" s="2"/>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2"/>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2"/>
+      <c r="CI5" s="2"/>
+      <c r="CJ5" s="2"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="2"/>
+      <c r="CO5" s="2"/>
+      <c r="CP5" s="2"/>
+      <c r="CQ5" s="2"/>
+      <c r="CR5" s="2"/>
+      <c r="CS5" s="2"/>
+      <c r="CT5" s="2"/>
+      <c r="CU5" s="2"/>
+      <c r="CV5" s="2"/>
+      <c r="CW5" s="2"/>
+      <c r="CX5" s="2"/>
+      <c r="CY5" s="2"/>
+      <c r="CZ5" s="2"/>
+      <c r="DA5" s="2"/>
+      <c r="DB5" s="2"/>
+      <c r="DC5" s="2"/>
+      <c r="DD5" s="2"/>
+      <c r="DE5" s="2"/>
+      <c r="DF5" s="2"/>
+      <c r="DG5" s="2"/>
+      <c r="DH5" s="2"/>
+      <c r="DI5" s="2"/>
+      <c r="DJ5" s="2"/>
+      <c r="DK5" s="2"/>
+      <c r="DL5" s="2"/>
+      <c r="DM5" s="2"/>
+      <c r="DN5" s="2"/>
+      <c r="DO5" s="2"/>
+      <c r="DP5" s="2"/>
+      <c r="DQ5" s="2"/>
+      <c r="DR5" s="2"/>
+      <c r="DS5" s="2"/>
+      <c r="DT5" s="2"/>
+      <c r="DU5" s="2"/>
+      <c r="DV5" s="2"/>
+      <c r="DW5" s="2"/>
+      <c r="DX5" s="2"/>
+      <c r="DY5" s="2"/>
+      <c r="DZ5" s="2"/>
+      <c r="EA5" s="2"/>
+      <c r="EB5" s="2"/>
+      <c r="EC5" s="2"/>
+      <c r="ED5" s="2"/>
+      <c r="EE5" s="2"/>
+      <c r="EF5" s="2"/>
+      <c r="EG5" s="2"/>
+      <c r="EH5" s="2"/>
+      <c r="EI5" s="2"/>
+      <c r="EJ5" s="2"/>
+      <c r="EK5" s="2"/>
+      <c r="EL5" s="2"/>
+      <c r="EM5" s="2"/>
+      <c r="EN5" s="2"/>
+      <c r="EO5" s="2"/>
+      <c r="EP5" s="2"/>
+      <c r="EQ5" s="2"/>
+      <c r="ER5" s="2"/>
+      <c r="ES5" s="2"/>
+      <c r="ET5" s="2"/>
+      <c r="EU5" s="2"/>
+      <c r="EV5" s="2"/>
+      <c r="EW5" s="2"/>
+      <c r="EX5" s="2"/>
+      <c r="EY5" s="2"/>
+      <c r="EZ5" s="2"/>
+      <c r="FA5" s="2"/>
+      <c r="FB5" s="2"/>
+      <c r="FC5" s="2"/>
+      <c r="FD5" s="2"/>
+      <c r="FE5" s="2"/>
+      <c r="FF5" s="2"/>
+      <c r="FG5" s="2"/>
+      <c r="FH5" s="2"/>
+      <c r="FI5" s="2"/>
+      <c r="FJ5" s="2"/>
+      <c r="FK5" s="2"/>
+      <c r="FL5" s="2"/>
+      <c r="FM5" s="2"/>
+      <c r="FN5" s="2"/>
+      <c r="FO5" s="2"/>
+      <c r="FP5" s="2"/>
+      <c r="FQ5" s="2"/>
+      <c r="FR5" s="2"/>
+      <c r="FS5" s="2"/>
+      <c r="FT5" s="2"/>
+      <c r="FU5" s="2"/>
+      <c r="FV5" s="2"/>
+      <c r="FW5" s="2"/>
+      <c r="FX5" s="2"/>
+      <c r="FY5" s="2"/>
+      <c r="FZ5" s="2"/>
+      <c r="GA5" s="2"/>
+      <c r="GB5" s="2"/>
+      <c r="GC5" s="2"/>
+      <c r="GD5" s="2"/>
+      <c r="GE5" s="2"/>
+      <c r="GF5" s="2"/>
+      <c r="GG5" s="2"/>
+      <c r="GH5" s="2"/>
+      <c r="GI5" s="2"/>
+    </row>
+    <row r="6" spans="1:191" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.31001000000000001</v>
+      </c>
+      <c r="C6" s="5">
+        <f>B6/4.43</f>
+        <v>6.9979683972911974E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="2"/>
+      <c r="BV6" s="2"/>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="2"/>
+      <c r="CA6" s="2"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6" s="2"/>
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="2"/>
+      <c r="CI6" s="2"/>
+      <c r="CJ6" s="2"/>
+      <c r="CK6" s="2"/>
+      <c r="CL6" s="2"/>
+      <c r="CM6" s="2"/>
+      <c r="CN6" s="2"/>
+      <c r="CO6" s="2"/>
+      <c r="CP6" s="2"/>
+      <c r="CQ6" s="2"/>
+      <c r="CR6" s="2"/>
+      <c r="CS6" s="2"/>
+      <c r="CT6" s="2"/>
+      <c r="CU6" s="2"/>
+      <c r="CV6" s="2"/>
+      <c r="CW6" s="2"/>
+      <c r="CX6" s="2"/>
+      <c r="CY6" s="2"/>
+      <c r="CZ6" s="2"/>
+      <c r="DA6" s="2"/>
+      <c r="DB6" s="2"/>
+      <c r="DC6" s="2"/>
+      <c r="DD6" s="2"/>
+      <c r="DE6" s="2"/>
+      <c r="DF6" s="2"/>
+      <c r="DG6" s="2"/>
+      <c r="DH6" s="2"/>
+      <c r="DI6" s="2"/>
+      <c r="DJ6" s="2"/>
+      <c r="DK6" s="2"/>
+      <c r="DL6" s="2"/>
+      <c r="DM6" s="2"/>
+      <c r="DN6" s="2"/>
+      <c r="DO6" s="2"/>
+      <c r="DP6" s="2"/>
+      <c r="DQ6" s="2"/>
+      <c r="DR6" s="2"/>
+      <c r="DS6" s="2"/>
+      <c r="DT6" s="2"/>
+      <c r="DU6" s="2"/>
+      <c r="DV6" s="2"/>
+      <c r="DW6" s="2"/>
+      <c r="DX6" s="2"/>
+      <c r="DY6" s="2"/>
+      <c r="DZ6" s="2"/>
+      <c r="EA6" s="2"/>
+      <c r="EB6" s="2"/>
+      <c r="EC6" s="2"/>
+      <c r="ED6" s="2"/>
+      <c r="EE6" s="2"/>
+      <c r="EF6" s="2"/>
+      <c r="EG6" s="2"/>
+      <c r="EH6" s="2"/>
+      <c r="EI6" s="2"/>
+      <c r="EJ6" s="2"/>
+      <c r="EK6" s="2"/>
+      <c r="EL6" s="2"/>
+      <c r="EM6" s="2"/>
+      <c r="EN6" s="2"/>
+      <c r="EO6" s="2"/>
+      <c r="EP6" s="2"/>
+      <c r="EQ6" s="2"/>
+      <c r="ER6" s="2"/>
+      <c r="ES6" s="2"/>
+      <c r="ET6" s="2"/>
+      <c r="EU6" s="2"/>
+      <c r="EV6" s="2"/>
+      <c r="EW6" s="2"/>
+      <c r="EX6" s="2"/>
+      <c r="EY6" s="2"/>
+      <c r="EZ6" s="2"/>
+      <c r="FA6" s="2"/>
+      <c r="FB6" s="2"/>
+      <c r="FC6" s="2"/>
+      <c r="FD6" s="2"/>
+      <c r="FE6" s="2"/>
+      <c r="FF6" s="2"/>
+      <c r="FG6" s="2"/>
+      <c r="FH6" s="2"/>
+      <c r="FI6" s="2"/>
+      <c r="FJ6" s="2"/>
+      <c r="FK6" s="2"/>
+      <c r="FL6" s="2"/>
+      <c r="FM6" s="2"/>
+      <c r="FN6" s="2"/>
+      <c r="FO6" s="2"/>
+      <c r="FP6" s="2"/>
+      <c r="FQ6" s="2"/>
+      <c r="FR6" s="2"/>
+      <c r="FS6" s="2"/>
+      <c r="FT6" s="2"/>
+      <c r="FU6" s="2"/>
+      <c r="FV6" s="2"/>
+      <c r="FW6" s="2"/>
+      <c r="FX6" s="2"/>
+      <c r="FY6" s="2"/>
+      <c r="FZ6" s="2"/>
+      <c r="GA6" s="2"/>
+      <c r="GB6" s="2"/>
+      <c r="GC6" s="2"/>
+      <c r="GD6" s="2"/>
+      <c r="GE6" s="2"/>
+      <c r="GF6" s="2"/>
+      <c r="GG6" s="2"/>
+      <c r="GH6" s="2"/>
+      <c r="GI6" s="2"/>
+    </row>
+    <row r="7" spans="1:191" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>23</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.27556000000000003</v>
+      </c>
+      <c r="C7" s="14">
+        <f>B7/4.43</f>
+        <v>6.2203160270880374E-2</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="2"/>
+      <c r="BQ7" s="2"/>
+      <c r="BR7" s="2"/>
+      <c r="BS7" s="2"/>
+      <c r="BT7" s="2"/>
+      <c r="BU7" s="2"/>
+      <c r="BV7" s="2"/>
+      <c r="BW7" s="2"/>
+      <c r="BX7" s="2"/>
+      <c r="BY7" s="2"/>
+      <c r="BZ7" s="2"/>
+      <c r="CA7" s="2"/>
+      <c r="CB7" s="2"/>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="2"/>
+      <c r="CF7" s="2"/>
+      <c r="CG7" s="2"/>
+      <c r="CH7" s="2"/>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="2"/>
+      <c r="CM7" s="2"/>
+      <c r="CN7" s="2"/>
+      <c r="CO7" s="2"/>
+      <c r="CP7" s="2"/>
+      <c r="CQ7" s="2"/>
+      <c r="CR7" s="2"/>
+      <c r="CS7" s="2"/>
+      <c r="CT7" s="2"/>
+      <c r="CU7" s="2"/>
+      <c r="CV7" s="2"/>
+      <c r="CW7" s="2"/>
+      <c r="CX7" s="2"/>
+      <c r="CY7" s="2"/>
+      <c r="CZ7" s="2"/>
+      <c r="DA7" s="2"/>
+      <c r="DB7" s="2"/>
+      <c r="DC7" s="2"/>
+      <c r="DD7" s="2"/>
+      <c r="DE7" s="2"/>
+      <c r="DF7" s="2"/>
+      <c r="DG7" s="2"/>
+      <c r="DH7" s="2"/>
+      <c r="DI7" s="2"/>
+      <c r="DJ7" s="2"/>
+      <c r="DK7" s="2"/>
+      <c r="DL7" s="2"/>
+      <c r="DM7" s="2"/>
+      <c r="DN7" s="2"/>
+      <c r="DO7" s="2"/>
+      <c r="DP7" s="2"/>
+      <c r="DQ7" s="2"/>
+      <c r="DR7" s="2"/>
+      <c r="DS7" s="2"/>
+      <c r="DT7" s="2"/>
+      <c r="DU7" s="2"/>
+      <c r="DV7" s="2"/>
+      <c r="DW7" s="2"/>
+      <c r="DX7" s="2"/>
+      <c r="DY7" s="2"/>
+      <c r="DZ7" s="2"/>
+      <c r="EA7" s="2"/>
+      <c r="EB7" s="2"/>
+      <c r="EC7" s="2"/>
+      <c r="ED7" s="2"/>
+      <c r="EE7" s="2"/>
+      <c r="EF7" s="2"/>
+      <c r="EG7" s="2"/>
+      <c r="EH7" s="2"/>
+      <c r="EI7" s="2"/>
+      <c r="EJ7" s="2"/>
+      <c r="EK7" s="2"/>
+      <c r="EL7" s="2"/>
+      <c r="EM7" s="2"/>
+      <c r="EN7" s="2"/>
+      <c r="EO7" s="2"/>
+      <c r="EP7" s="2"/>
+      <c r="EQ7" s="2"/>
+      <c r="ER7" s="2"/>
+      <c r="ES7" s="2"/>
+      <c r="ET7" s="2"/>
+      <c r="EU7" s="2"/>
+      <c r="EV7" s="2"/>
+      <c r="EW7" s="2"/>
+      <c r="EX7" s="2"/>
+      <c r="EY7" s="2"/>
+      <c r="EZ7" s="2"/>
+      <c r="FA7" s="2"/>
+      <c r="FB7" s="2"/>
+      <c r="FC7" s="2"/>
+      <c r="FD7" s="2"/>
+      <c r="FE7" s="2"/>
+      <c r="FF7" s="2"/>
+      <c r="FG7" s="2"/>
+      <c r="FH7" s="2"/>
+      <c r="FI7" s="2"/>
+      <c r="FJ7" s="2"/>
+      <c r="FK7" s="2"/>
+      <c r="FL7" s="2"/>
+      <c r="FM7" s="2"/>
+      <c r="FN7" s="2"/>
+      <c r="FO7" s="2"/>
+      <c r="FP7" s="2"/>
+      <c r="FQ7" s="2"/>
+      <c r="FR7" s="2"/>
+      <c r="FS7" s="2"/>
+      <c r="FT7" s="2"/>
+      <c r="FU7" s="2"/>
+      <c r="FV7" s="2"/>
+      <c r="FW7" s="2"/>
+      <c r="FX7" s="2"/>
+      <c r="FY7" s="2"/>
+      <c r="FZ7" s="2"/>
+      <c r="GA7" s="2"/>
+      <c r="GB7" s="2"/>
+      <c r="GC7" s="2"/>
+      <c r="GD7" s="2"/>
+      <c r="GE7" s="2"/>
+      <c r="GF7" s="2"/>
+      <c r="GG7" s="2"/>
+      <c r="GH7" s="2"/>
+      <c r="GI7" s="2"/>
+    </row>
+    <row r="8" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.24096000000000001</v>
+      </c>
+      <c r="C8" s="6">
+        <f>B8/4.43</f>
+        <v>5.4392776523702037E-2</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:191" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.14754999999999999</v>
+      </c>
+      <c r="C9" s="6">
+        <f>B9/4.43</f>
+        <v>3.3306997742663658E-2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="2"/>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2"/>
+      <c r="BU9" s="2"/>
+      <c r="BV9" s="2"/>
+      <c r="BW9" s="2"/>
+      <c r="BX9" s="2"/>
+      <c r="BY9" s="2"/>
+      <c r="BZ9" s="2"/>
+      <c r="CA9" s="2"/>
+      <c r="CB9" s="2"/>
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+      <c r="CF9" s="2"/>
+      <c r="CG9" s="2"/>
+      <c r="CH9" s="2"/>
+      <c r="CI9" s="2"/>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="2"/>
+      <c r="CL9" s="2"/>
+      <c r="CM9" s="2"/>
+      <c r="CN9" s="2"/>
+      <c r="CO9" s="2"/>
+      <c r="CP9" s="2"/>
+      <c r="CQ9" s="2"/>
+      <c r="CR9" s="2"/>
+      <c r="CS9" s="2"/>
+      <c r="CT9" s="2"/>
+      <c r="CU9" s="2"/>
+      <c r="CV9" s="2"/>
+      <c r="CW9" s="2"/>
+      <c r="CX9" s="2"/>
+      <c r="CY9" s="2"/>
+      <c r="CZ9" s="2"/>
+      <c r="DA9" s="2"/>
+      <c r="DB9" s="2"/>
+      <c r="DC9" s="2"/>
+      <c r="DD9" s="2"/>
+      <c r="DE9" s="2"/>
+      <c r="DF9" s="2"/>
+      <c r="DG9" s="2"/>
+      <c r="DH9" s="2"/>
+      <c r="DI9" s="2"/>
+      <c r="DJ9" s="2"/>
+      <c r="DK9" s="2"/>
+      <c r="DL9" s="2"/>
+      <c r="DM9" s="2"/>
+      <c r="DN9" s="2"/>
+      <c r="DO9" s="2"/>
+      <c r="DP9" s="2"/>
+      <c r="DQ9" s="2"/>
+      <c r="DR9" s="2"/>
+      <c r="DS9" s="2"/>
+      <c r="DT9" s="2"/>
+      <c r="DU9" s="2"/>
+      <c r="DV9" s="2"/>
+      <c r="DW9" s="2"/>
+      <c r="DX9" s="2"/>
+      <c r="DY9" s="2"/>
+      <c r="DZ9" s="2"/>
+      <c r="EA9" s="2"/>
+      <c r="EB9" s="2"/>
+      <c r="EC9" s="2"/>
+      <c r="ED9" s="2"/>
+      <c r="EE9" s="2"/>
+      <c r="EF9" s="2"/>
+      <c r="EG9" s="2"/>
+      <c r="EH9" s="2"/>
+      <c r="EI9" s="2"/>
+      <c r="EJ9" s="2"/>
+      <c r="EK9" s="2"/>
+      <c r="EL9" s="2"/>
+      <c r="EM9" s="2"/>
+      <c r="EN9" s="2"/>
+      <c r="EO9" s="2"/>
+      <c r="EP9" s="2"/>
+      <c r="EQ9" s="2"/>
+      <c r="ER9" s="2"/>
+      <c r="ES9" s="2"/>
+      <c r="ET9" s="2"/>
+      <c r="EU9" s="2"/>
+      <c r="EV9" s="2"/>
+      <c r="EW9" s="2"/>
+      <c r="EX9" s="2"/>
+      <c r="EY9" s="2"/>
+      <c r="EZ9" s="2"/>
+      <c r="FA9" s="2"/>
+      <c r="FB9" s="2"/>
+      <c r="FC9" s="2"/>
+      <c r="FD9" s="2"/>
+      <c r="FE9" s="2"/>
+      <c r="FF9" s="2"/>
+      <c r="FG9" s="2"/>
+      <c r="FH9" s="2"/>
+      <c r="FI9" s="2"/>
+      <c r="FJ9" s="2"/>
+      <c r="FK9" s="2"/>
+      <c r="FL9" s="2"/>
+      <c r="FM9" s="2"/>
+      <c r="FN9" s="2"/>
+      <c r="FO9" s="2"/>
+      <c r="FP9" s="2"/>
+      <c r="FQ9" s="2"/>
+      <c r="FR9" s="2"/>
+      <c r="FS9" s="2"/>
+      <c r="FT9" s="2"/>
+      <c r="FU9" s="2"/>
+      <c r="FV9" s="2"/>
+      <c r="FW9" s="2"/>
+      <c r="FX9" s="2"/>
+      <c r="FY9" s="2"/>
+      <c r="FZ9" s="2"/>
+      <c r="GA9" s="2"/>
+      <c r="GB9" s="2"/>
+      <c r="GC9" s="2"/>
+      <c r="GD9" s="2"/>
+      <c r="GE9" s="2"/>
+      <c r="GF9" s="2"/>
+      <c r="GG9" s="2"/>
+      <c r="GH9" s="2"/>
+      <c r="GI9" s="2"/>
+    </row>
+    <row r="10" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.13381000000000001</v>
+      </c>
+      <c r="C10" s="6">
+        <f>B10/4.43</f>
+        <v>3.0205417607223482E-2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.10487</v>
+      </c>
+      <c r="C11" s="11">
+        <f>B11/4.43</f>
+        <v>2.3672686230248308E-2</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B12" s="7">
         <v>0.10483000000000001</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C12" s="5">
+        <f>B12/4.43</f>
+        <v>2.3663656884875848E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:191" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.10162</v>
+      </c>
+      <c r="C13" s="5">
+        <f>B13/4.43</f>
+        <v>2.2939051918735895E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="2"/>
+      <c r="BR13" s="2"/>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2"/>
+      <c r="BU13" s="2"/>
+      <c r="BV13" s="2"/>
+      <c r="BW13" s="2"/>
+      <c r="BX13" s="2"/>
+      <c r="BY13" s="2"/>
+      <c r="BZ13" s="2"/>
+      <c r="CA13" s="2"/>
+      <c r="CB13" s="2"/>
+      <c r="CC13" s="2"/>
+      <c r="CD13" s="2"/>
+      <c r="CE13" s="2"/>
+      <c r="CF13" s="2"/>
+      <c r="CG13" s="2"/>
+      <c r="CH13" s="2"/>
+      <c r="CI13" s="2"/>
+      <c r="CJ13" s="2"/>
+      <c r="CK13" s="2"/>
+      <c r="CL13" s="2"/>
+      <c r="CM13" s="2"/>
+      <c r="CN13" s="2"/>
+      <c r="CO13" s="2"/>
+      <c r="CP13" s="2"/>
+      <c r="CQ13" s="2"/>
+      <c r="CR13" s="2"/>
+      <c r="CS13" s="2"/>
+      <c r="CT13" s="2"/>
+      <c r="CU13" s="2"/>
+      <c r="CV13" s="2"/>
+      <c r="CW13" s="2"/>
+      <c r="CX13" s="2"/>
+      <c r="CY13" s="2"/>
+      <c r="CZ13" s="2"/>
+      <c r="DA13" s="2"/>
+      <c r="DB13" s="2"/>
+      <c r="DC13" s="2"/>
+      <c r="DD13" s="2"/>
+      <c r="DE13" s="2"/>
+      <c r="DF13" s="2"/>
+      <c r="DG13" s="2"/>
+      <c r="DH13" s="2"/>
+      <c r="DI13" s="2"/>
+      <c r="DJ13" s="2"/>
+      <c r="DK13" s="2"/>
+      <c r="DL13" s="2"/>
+      <c r="DM13" s="2"/>
+      <c r="DN13" s="2"/>
+      <c r="DO13" s="2"/>
+      <c r="DP13" s="2"/>
+      <c r="DQ13" s="2"/>
+      <c r="DR13" s="2"/>
+      <c r="DS13" s="2"/>
+      <c r="DT13" s="2"/>
+      <c r="DU13" s="2"/>
+      <c r="DV13" s="2"/>
+      <c r="DW13" s="2"/>
+      <c r="DX13" s="2"/>
+      <c r="DY13" s="2"/>
+      <c r="DZ13" s="2"/>
+      <c r="EA13" s="2"/>
+      <c r="EB13" s="2"/>
+      <c r="EC13" s="2"/>
+      <c r="ED13" s="2"/>
+      <c r="EE13" s="2"/>
+      <c r="EF13" s="2"/>
+      <c r="EG13" s="2"/>
+      <c r="EH13" s="2"/>
+      <c r="EI13" s="2"/>
+      <c r="EJ13" s="2"/>
+      <c r="EK13" s="2"/>
+      <c r="EL13" s="2"/>
+      <c r="EM13" s="2"/>
+      <c r="EN13" s="2"/>
+      <c r="EO13" s="2"/>
+      <c r="EP13" s="2"/>
+      <c r="EQ13" s="2"/>
+      <c r="ER13" s="2"/>
+      <c r="ES13" s="2"/>
+      <c r="ET13" s="2"/>
+      <c r="EU13" s="2"/>
+      <c r="EV13" s="2"/>
+      <c r="EW13" s="2"/>
+      <c r="EX13" s="2"/>
+      <c r="EY13" s="2"/>
+      <c r="EZ13" s="2"/>
+      <c r="FA13" s="2"/>
+      <c r="FB13" s="2"/>
+      <c r="FC13" s="2"/>
+      <c r="FD13" s="2"/>
+      <c r="FE13" s="2"/>
+      <c r="FF13" s="2"/>
+      <c r="FG13" s="2"/>
+      <c r="FH13" s="2"/>
+      <c r="FI13" s="2"/>
+      <c r="FJ13" s="2"/>
+      <c r="FK13" s="2"/>
+      <c r="FL13" s="2"/>
+      <c r="FM13" s="2"/>
+      <c r="FN13" s="2"/>
+      <c r="FO13" s="2"/>
+      <c r="FP13" s="2"/>
+      <c r="FQ13" s="2"/>
+      <c r="FR13" s="2"/>
+      <c r="FS13" s="2"/>
+      <c r="FT13" s="2"/>
+      <c r="FU13" s="2"/>
+      <c r="FV13" s="2"/>
+      <c r="FW13" s="2"/>
+      <c r="FX13" s="2"/>
+      <c r="FY13" s="2"/>
+      <c r="FZ13" s="2"/>
+      <c r="GA13" s="2"/>
+      <c r="GB13" s="2"/>
+      <c r="GC13" s="2"/>
+      <c r="GD13" s="2"/>
+      <c r="GE13" s="2"/>
+      <c r="GF13" s="2"/>
+      <c r="GG13" s="2"/>
+      <c r="GH13" s="2"/>
+      <c r="GI13" s="2"/>
+    </row>
+    <row r="14" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8">
+        <v>9.5469999999999999E-2</v>
+      </c>
+      <c r="C14" s="6">
+        <f>B14/4.43</f>
+        <v>2.155079006772009E-2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:191" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7">
+        <v>8.8620000000000004E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <f>B15/4.43</f>
+        <v>2.0004514672686234E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="2"/>
+      <c r="BO15" s="2"/>
+      <c r="BP15" s="2"/>
+      <c r="BQ15" s="2"/>
+      <c r="BR15" s="2"/>
+      <c r="BS15" s="2"/>
+      <c r="BT15" s="2"/>
+      <c r="BU15" s="2"/>
+      <c r="BV15" s="2"/>
+      <c r="BW15" s="2"/>
+      <c r="BX15" s="2"/>
+      <c r="BY15" s="2"/>
+      <c r="BZ15" s="2"/>
+      <c r="CA15" s="2"/>
+      <c r="CB15" s="2"/>
+      <c r="CC15" s="2"/>
+      <c r="CD15" s="2"/>
+      <c r="CE15" s="2"/>
+      <c r="CF15" s="2"/>
+      <c r="CG15" s="2"/>
+      <c r="CH15" s="2"/>
+      <c r="CI15" s="2"/>
+      <c r="CJ15" s="2"/>
+      <c r="CK15" s="2"/>
+      <c r="CL15" s="2"/>
+      <c r="CM15" s="2"/>
+      <c r="CN15" s="2"/>
+      <c r="CO15" s="2"/>
+      <c r="CP15" s="2"/>
+      <c r="CQ15" s="2"/>
+      <c r="CR15" s="2"/>
+      <c r="CS15" s="2"/>
+      <c r="CT15" s="2"/>
+      <c r="CU15" s="2"/>
+      <c r="CV15" s="2"/>
+      <c r="CW15" s="2"/>
+      <c r="CX15" s="2"/>
+      <c r="CY15" s="2"/>
+      <c r="CZ15" s="2"/>
+      <c r="DA15" s="2"/>
+      <c r="DB15" s="2"/>
+      <c r="DC15" s="2"/>
+      <c r="DD15" s="2"/>
+      <c r="DE15" s="2"/>
+      <c r="DF15" s="2"/>
+      <c r="DG15" s="2"/>
+      <c r="DH15" s="2"/>
+      <c r="DI15" s="2"/>
+      <c r="DJ15" s="2"/>
+      <c r="DK15" s="2"/>
+      <c r="DL15" s="2"/>
+      <c r="DM15" s="2"/>
+      <c r="DN15" s="2"/>
+      <c r="DO15" s="2"/>
+      <c r="DP15" s="2"/>
+      <c r="DQ15" s="2"/>
+      <c r="DR15" s="2"/>
+      <c r="DS15" s="2"/>
+      <c r="DT15" s="2"/>
+      <c r="DU15" s="2"/>
+      <c r="DV15" s="2"/>
+      <c r="DW15" s="2"/>
+      <c r="DX15" s="2"/>
+      <c r="DY15" s="2"/>
+      <c r="DZ15" s="2"/>
+      <c r="EA15" s="2"/>
+      <c r="EB15" s="2"/>
+      <c r="EC15" s="2"/>
+      <c r="ED15" s="2"/>
+      <c r="EE15" s="2"/>
+      <c r="EF15" s="2"/>
+      <c r="EG15" s="2"/>
+      <c r="EH15" s="2"/>
+      <c r="EI15" s="2"/>
+      <c r="EJ15" s="2"/>
+      <c r="EK15" s="2"/>
+      <c r="EL15" s="2"/>
+      <c r="EM15" s="2"/>
+      <c r="EN15" s="2"/>
+      <c r="EO15" s="2"/>
+      <c r="EP15" s="2"/>
+      <c r="EQ15" s="2"/>
+      <c r="ER15" s="2"/>
+      <c r="ES15" s="2"/>
+      <c r="ET15" s="2"/>
+      <c r="EU15" s="2"/>
+      <c r="EV15" s="2"/>
+      <c r="EW15" s="2"/>
+      <c r="EX15" s="2"/>
+      <c r="EY15" s="2"/>
+      <c r="EZ15" s="2"/>
+      <c r="FA15" s="2"/>
+      <c r="FB15" s="2"/>
+      <c r="FC15" s="2"/>
+      <c r="FD15" s="2"/>
+      <c r="FE15" s="2"/>
+      <c r="FF15" s="2"/>
+      <c r="FG15" s="2"/>
+      <c r="FH15" s="2"/>
+      <c r="FI15" s="2"/>
+      <c r="FJ15" s="2"/>
+      <c r="FK15" s="2"/>
+      <c r="FL15" s="2"/>
+      <c r="FM15" s="2"/>
+      <c r="FN15" s="2"/>
+      <c r="FO15" s="2"/>
+      <c r="FP15" s="2"/>
+      <c r="FQ15" s="2"/>
+      <c r="FR15" s="2"/>
+      <c r="FS15" s="2"/>
+      <c r="FT15" s="2"/>
+      <c r="FU15" s="2"/>
+      <c r="FV15" s="2"/>
+      <c r="FW15" s="2"/>
+      <c r="FX15" s="2"/>
+      <c r="FY15" s="2"/>
+      <c r="FZ15" s="2"/>
+      <c r="GA15" s="2"/>
+      <c r="GB15" s="2"/>
+      <c r="GC15" s="2"/>
+      <c r="GD15" s="2"/>
+      <c r="GE15" s="2"/>
+      <c r="GF15" s="2"/>
+      <c r="GG15" s="2"/>
+      <c r="GH15" s="2"/>
+      <c r="GI15" s="2"/>
+    </row>
+    <row r="16" spans="1:191" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7">
+        <v>8.7970000000000007E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <f>B16/4.43</f>
+        <v>1.9857787810383751E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="2"/>
+      <c r="BQ16" s="2"/>
+      <c r="BR16" s="2"/>
+      <c r="BS16" s="2"/>
+      <c r="BT16" s="2"/>
+      <c r="BU16" s="2"/>
+      <c r="BV16" s="2"/>
+      <c r="BW16" s="2"/>
+      <c r="BX16" s="2"/>
+      <c r="BY16" s="2"/>
+      <c r="BZ16" s="2"/>
+      <c r="CA16" s="2"/>
+      <c r="CB16" s="2"/>
+      <c r="CC16" s="2"/>
+      <c r="CD16" s="2"/>
+      <c r="CE16" s="2"/>
+      <c r="CF16" s="2"/>
+      <c r="CG16" s="2"/>
+      <c r="CH16" s="2"/>
+      <c r="CI16" s="2"/>
+      <c r="CJ16" s="2"/>
+      <c r="CK16" s="2"/>
+      <c r="CL16" s="2"/>
+      <c r="CM16" s="2"/>
+      <c r="CN16" s="2"/>
+      <c r="CO16" s="2"/>
+      <c r="CP16" s="2"/>
+      <c r="CQ16" s="2"/>
+      <c r="CR16" s="2"/>
+      <c r="CS16" s="2"/>
+      <c r="CT16" s="2"/>
+      <c r="CU16" s="2"/>
+      <c r="CV16" s="2"/>
+      <c r="CW16" s="2"/>
+      <c r="CX16" s="2"/>
+      <c r="CY16" s="2"/>
+      <c r="CZ16" s="2"/>
+      <c r="DA16" s="2"/>
+      <c r="DB16" s="2"/>
+      <c r="DC16" s="2"/>
+      <c r="DD16" s="2"/>
+      <c r="DE16" s="2"/>
+      <c r="DF16" s="2"/>
+      <c r="DG16" s="2"/>
+      <c r="DH16" s="2"/>
+      <c r="DI16" s="2"/>
+      <c r="DJ16" s="2"/>
+      <c r="DK16" s="2"/>
+      <c r="DL16" s="2"/>
+      <c r="DM16" s="2"/>
+      <c r="DN16" s="2"/>
+      <c r="DO16" s="2"/>
+      <c r="DP16" s="2"/>
+      <c r="DQ16" s="2"/>
+      <c r="DR16" s="2"/>
+      <c r="DS16" s="2"/>
+      <c r="DT16" s="2"/>
+      <c r="DU16" s="2"/>
+      <c r="DV16" s="2"/>
+      <c r="DW16" s="2"/>
+      <c r="DX16" s="2"/>
+      <c r="DY16" s="2"/>
+      <c r="DZ16" s="2"/>
+      <c r="EA16" s="2"/>
+      <c r="EB16" s="2"/>
+      <c r="EC16" s="2"/>
+      <c r="ED16" s="2"/>
+      <c r="EE16" s="2"/>
+      <c r="EF16" s="2"/>
+      <c r="EG16" s="2"/>
+      <c r="EH16" s="2"/>
+      <c r="EI16" s="2"/>
+      <c r="EJ16" s="2"/>
+      <c r="EK16" s="2"/>
+      <c r="EL16" s="2"/>
+      <c r="EM16" s="2"/>
+      <c r="EN16" s="2"/>
+      <c r="EO16" s="2"/>
+      <c r="EP16" s="2"/>
+      <c r="EQ16" s="2"/>
+      <c r="ER16" s="2"/>
+      <c r="ES16" s="2"/>
+      <c r="ET16" s="2"/>
+      <c r="EU16" s="2"/>
+      <c r="EV16" s="2"/>
+      <c r="EW16" s="2"/>
+      <c r="EX16" s="2"/>
+      <c r="EY16" s="2"/>
+      <c r="EZ16" s="2"/>
+      <c r="FA16" s="2"/>
+      <c r="FB16" s="2"/>
+      <c r="FC16" s="2"/>
+      <c r="FD16" s="2"/>
+      <c r="FE16" s="2"/>
+      <c r="FF16" s="2"/>
+      <c r="FG16" s="2"/>
+      <c r="FH16" s="2"/>
+      <c r="FI16" s="2"/>
+      <c r="FJ16" s="2"/>
+      <c r="FK16" s="2"/>
+      <c r="FL16" s="2"/>
+      <c r="FM16" s="2"/>
+      <c r="FN16" s="2"/>
+      <c r="FO16" s="2"/>
+      <c r="FP16" s="2"/>
+      <c r="FQ16" s="2"/>
+      <c r="FR16" s="2"/>
+      <c r="FS16" s="2"/>
+      <c r="FT16" s="2"/>
+      <c r="FU16" s="2"/>
+      <c r="FV16" s="2"/>
+      <c r="FW16" s="2"/>
+      <c r="FX16" s="2"/>
+      <c r="FY16" s="2"/>
+      <c r="FZ16" s="2"/>
+      <c r="GA16" s="2"/>
+      <c r="GB16" s="2"/>
+      <c r="GC16" s="2"/>
+      <c r="GD16" s="2"/>
+      <c r="GE16" s="2"/>
+      <c r="GF16" s="2"/>
+      <c r="GG16" s="2"/>
+      <c r="GH16" s="2"/>
+      <c r="GI16" s="2"/>
+    </row>
+    <row r="17" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="7">
+        <v>6.9010000000000002E-2</v>
+      </c>
+      <c r="C17" s="5">
+        <f>B17/4.43</f>
+        <v>1.5577878103837473E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="C18" s="6">
+        <f>B18/4.43</f>
+        <v>1.5485327313769752E-2</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:191" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>7</v>
+      </c>
+      <c r="B19" s="8">
+        <v>6.0019999999999997E-2</v>
+      </c>
+      <c r="C19" s="6">
+        <f>B19/4.43</f>
+        <v>1.3548532731376975E-2</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
+      <c r="BU19" s="2"/>
+      <c r="BV19" s="2"/>
+      <c r="BW19" s="2"/>
+      <c r="BX19" s="2"/>
+      <c r="BY19" s="2"/>
+      <c r="BZ19" s="2"/>
+      <c r="CA19" s="2"/>
+      <c r="CB19" s="2"/>
+      <c r="CC19" s="2"/>
+      <c r="CD19" s="2"/>
+      <c r="CE19" s="2"/>
+      <c r="CF19" s="2"/>
+      <c r="CG19" s="2"/>
+      <c r="CH19" s="2"/>
+      <c r="CI19" s="2"/>
+      <c r="CJ19" s="2"/>
+      <c r="CK19" s="2"/>
+      <c r="CL19" s="2"/>
+      <c r="CM19" s="2"/>
+      <c r="CN19" s="2"/>
+      <c r="CO19" s="2"/>
+      <c r="CP19" s="2"/>
+      <c r="CQ19" s="2"/>
+      <c r="CR19" s="2"/>
+      <c r="CS19" s="2"/>
+      <c r="CT19" s="2"/>
+      <c r="CU19" s="2"/>
+      <c r="CV19" s="2"/>
+      <c r="CW19" s="2"/>
+      <c r="CX19" s="2"/>
+      <c r="CY19" s="2"/>
+      <c r="CZ19" s="2"/>
+      <c r="DA19" s="2"/>
+      <c r="DB19" s="2"/>
+      <c r="DC19" s="2"/>
+      <c r="DD19" s="2"/>
+      <c r="DE19" s="2"/>
+      <c r="DF19" s="2"/>
+      <c r="DG19" s="2"/>
+      <c r="DH19" s="2"/>
+      <c r="DI19" s="2"/>
+      <c r="DJ19" s="2"/>
+      <c r="DK19" s="2"/>
+      <c r="DL19" s="2"/>
+      <c r="DM19" s="2"/>
+      <c r="DN19" s="2"/>
+      <c r="DO19" s="2"/>
+      <c r="DP19" s="2"/>
+      <c r="DQ19" s="2"/>
+      <c r="DR19" s="2"/>
+      <c r="DS19" s="2"/>
+      <c r="DT19" s="2"/>
+      <c r="DU19" s="2"/>
+      <c r="DV19" s="2"/>
+      <c r="DW19" s="2"/>
+      <c r="DX19" s="2"/>
+      <c r="DY19" s="2"/>
+      <c r="DZ19" s="2"/>
+      <c r="EA19" s="2"/>
+      <c r="EB19" s="2"/>
+      <c r="EC19" s="2"/>
+      <c r="ED19" s="2"/>
+      <c r="EE19" s="2"/>
+      <c r="EF19" s="2"/>
+      <c r="EG19" s="2"/>
+      <c r="EH19" s="2"/>
+      <c r="EI19" s="2"/>
+      <c r="EJ19" s="2"/>
+      <c r="EK19" s="2"/>
+      <c r="EL19" s="2"/>
+      <c r="EM19" s="2"/>
+      <c r="EN19" s="2"/>
+      <c r="EO19" s="2"/>
+      <c r="EP19" s="2"/>
+      <c r="EQ19" s="2"/>
+      <c r="ER19" s="2"/>
+      <c r="ES19" s="2"/>
+      <c r="ET19" s="2"/>
+      <c r="EU19" s="2"/>
+      <c r="EV19" s="2"/>
+      <c r="EW19" s="2"/>
+      <c r="EX19" s="2"/>
+      <c r="EY19" s="2"/>
+      <c r="EZ19" s="2"/>
+      <c r="FA19" s="2"/>
+      <c r="FB19" s="2"/>
+      <c r="FC19" s="2"/>
+      <c r="FD19" s="2"/>
+      <c r="FE19" s="2"/>
+      <c r="FF19" s="2"/>
+      <c r="FG19" s="2"/>
+      <c r="FH19" s="2"/>
+      <c r="FI19" s="2"/>
+      <c r="FJ19" s="2"/>
+      <c r="FK19" s="2"/>
+      <c r="FL19" s="2"/>
+      <c r="FM19" s="2"/>
+      <c r="FN19" s="2"/>
+      <c r="FO19" s="2"/>
+      <c r="FP19" s="2"/>
+      <c r="FQ19" s="2"/>
+      <c r="FR19" s="2"/>
+      <c r="FS19" s="2"/>
+      <c r="FT19" s="2"/>
+      <c r="FU19" s="2"/>
+      <c r="FV19" s="2"/>
+      <c r="FW19" s="2"/>
+      <c r="FX19" s="2"/>
+      <c r="FY19" s="2"/>
+      <c r="FZ19" s="2"/>
+      <c r="GA19" s="2"/>
+      <c r="GB19" s="2"/>
+      <c r="GC19" s="2"/>
+      <c r="GD19" s="2"/>
+      <c r="GE19" s="2"/>
+      <c r="GF19" s="2"/>
+      <c r="GG19" s="2"/>
+      <c r="GH19" s="2"/>
+      <c r="GI19" s="2"/>
+    </row>
+    <row r="20" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>29</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4.8370000000000003E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <f>B20/4.43</f>
+        <v>1.0918735891647857E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4.4159999999999998E-2</v>
+      </c>
+      <c r="C21" s="5">
+        <f>B21/4.43</f>
+        <v>9.9683972911963886E-3</v>
+      </c>
+      <c r="D21" t="s">
         <v>232</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>9.5469999999999999E-2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>13</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3.7019999999999997E-2</v>
+      </c>
+      <c r="C22" s="6">
+        <f>B22/4.43</f>
+        <v>8.3566591422121889E-3</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:191" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>24</v>
+      </c>
+      <c r="B23" s="10">
+        <v>3.0980000000000001E-2</v>
+      </c>
+      <c r="C23" s="11">
+        <f>B23/4.43</f>
+        <v>6.9932279909706548E-3</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="2"/>
+      <c r="BV23" s="2"/>
+      <c r="BW23" s="2"/>
+      <c r="BX23" s="2"/>
+      <c r="BY23" s="2"/>
+      <c r="BZ23" s="2"/>
+      <c r="CA23" s="2"/>
+      <c r="CB23" s="2"/>
+      <c r="CC23" s="2"/>
+      <c r="CD23" s="2"/>
+      <c r="CE23" s="2"/>
+      <c r="CF23" s="2"/>
+      <c r="CG23" s="2"/>
+      <c r="CH23" s="2"/>
+      <c r="CI23" s="2"/>
+      <c r="CJ23" s="2"/>
+      <c r="CK23" s="2"/>
+      <c r="CL23" s="2"/>
+      <c r="CM23" s="2"/>
+      <c r="CN23" s="2"/>
+      <c r="CO23" s="2"/>
+      <c r="CP23" s="2"/>
+      <c r="CQ23" s="2"/>
+      <c r="CR23" s="2"/>
+      <c r="CS23" s="2"/>
+      <c r="CT23" s="2"/>
+      <c r="CU23" s="2"/>
+      <c r="CV23" s="2"/>
+      <c r="CW23" s="2"/>
+      <c r="CX23" s="2"/>
+      <c r="CY23" s="2"/>
+      <c r="CZ23" s="2"/>
+      <c r="DA23" s="2"/>
+      <c r="DB23" s="2"/>
+      <c r="DC23" s="2"/>
+      <c r="DD23" s="2"/>
+      <c r="DE23" s="2"/>
+      <c r="DF23" s="2"/>
+      <c r="DG23" s="2"/>
+      <c r="DH23" s="2"/>
+      <c r="DI23" s="2"/>
+      <c r="DJ23" s="2"/>
+      <c r="DK23" s="2"/>
+      <c r="DL23" s="2"/>
+      <c r="DM23" s="2"/>
+      <c r="DN23" s="2"/>
+      <c r="DO23" s="2"/>
+      <c r="DP23" s="2"/>
+      <c r="DQ23" s="2"/>
+      <c r="DR23" s="2"/>
+      <c r="DS23" s="2"/>
+      <c r="DT23" s="2"/>
+      <c r="DU23" s="2"/>
+      <c r="DV23" s="2"/>
+      <c r="DW23" s="2"/>
+      <c r="DX23" s="2"/>
+      <c r="DY23" s="2"/>
+      <c r="DZ23" s="2"/>
+      <c r="EA23" s="2"/>
+      <c r="EB23" s="2"/>
+      <c r="EC23" s="2"/>
+      <c r="ED23" s="2"/>
+      <c r="EE23" s="2"/>
+      <c r="EF23" s="2"/>
+      <c r="EG23" s="2"/>
+      <c r="EH23" s="2"/>
+      <c r="EI23" s="2"/>
+      <c r="EJ23" s="2"/>
+      <c r="EK23" s="2"/>
+      <c r="EL23" s="2"/>
+      <c r="EM23" s="2"/>
+      <c r="EN23" s="2"/>
+      <c r="EO23" s="2"/>
+      <c r="EP23" s="2"/>
+      <c r="EQ23" s="2"/>
+      <c r="ER23" s="2"/>
+      <c r="ES23" s="2"/>
+      <c r="ET23" s="2"/>
+      <c r="EU23" s="2"/>
+      <c r="EV23" s="2"/>
+      <c r="EW23" s="2"/>
+      <c r="EX23" s="2"/>
+      <c r="EY23" s="2"/>
+      <c r="EZ23" s="2"/>
+      <c r="FA23" s="2"/>
+      <c r="FB23" s="2"/>
+      <c r="FC23" s="2"/>
+      <c r="FD23" s="2"/>
+      <c r="FE23" s="2"/>
+      <c r="FF23" s="2"/>
+      <c r="FG23" s="2"/>
+      <c r="FH23" s="2"/>
+      <c r="FI23" s="2"/>
+      <c r="FJ23" s="2"/>
+      <c r="FK23" s="2"/>
+      <c r="FL23" s="2"/>
+      <c r="FM23" s="2"/>
+      <c r="FN23" s="2"/>
+      <c r="FO23" s="2"/>
+      <c r="FP23" s="2"/>
+      <c r="FQ23" s="2"/>
+      <c r="FR23" s="2"/>
+      <c r="FS23" s="2"/>
+      <c r="FT23" s="2"/>
+      <c r="FU23" s="2"/>
+      <c r="FV23" s="2"/>
+      <c r="FW23" s="2"/>
+      <c r="FX23" s="2"/>
+      <c r="FY23" s="2"/>
+      <c r="FZ23" s="2"/>
+      <c r="GA23" s="2"/>
+      <c r="GB23" s="2"/>
+      <c r="GC23" s="2"/>
+      <c r="GD23" s="2"/>
+      <c r="GE23" s="2"/>
+      <c r="GF23" s="2"/>
+      <c r="GG23" s="2"/>
+      <c r="GH23" s="2"/>
+      <c r="GI23" s="2"/>
+    </row>
+    <row r="24" spans="1:191" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3.0839999999999999E-2</v>
+      </c>
+      <c r="C24" s="6">
+        <f>B24/4.43</f>
+        <v>6.9616252821670431E-3</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="16"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="16"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="16"/>
+      <c r="BA24" s="16"/>
+      <c r="BB24" s="16"/>
+      <c r="BC24" s="16"/>
+      <c r="BD24" s="16"/>
+      <c r="BE24" s="16"/>
+      <c r="BF24" s="16"/>
+      <c r="BG24" s="16"/>
+      <c r="BH24" s="16"/>
+      <c r="BI24" s="16"/>
+      <c r="BJ24" s="16"/>
+      <c r="BK24" s="16"/>
+      <c r="BL24" s="16"/>
+      <c r="BM24" s="16"/>
+      <c r="BN24" s="16"/>
+      <c r="BO24" s="16"/>
+      <c r="BP24" s="16"/>
+      <c r="BQ24" s="16"/>
+      <c r="BR24" s="16"/>
+      <c r="BS24" s="16"/>
+      <c r="BT24" s="16"/>
+      <c r="BU24" s="16"/>
+      <c r="BV24" s="16"/>
+      <c r="BW24" s="16"/>
+      <c r="BX24" s="16"/>
+      <c r="BY24" s="16"/>
+      <c r="BZ24" s="16"/>
+      <c r="CA24" s="16"/>
+      <c r="CB24" s="16"/>
+      <c r="CC24" s="16"/>
+      <c r="CD24" s="16"/>
+      <c r="CE24" s="16"/>
+      <c r="CF24" s="16"/>
+      <c r="CG24" s="16"/>
+      <c r="CH24" s="16"/>
+      <c r="CI24" s="16"/>
+      <c r="CJ24" s="16"/>
+      <c r="CK24" s="16"/>
+      <c r="CL24" s="16"/>
+      <c r="CM24" s="16"/>
+      <c r="CN24" s="16"/>
+      <c r="CO24" s="16"/>
+      <c r="CP24" s="16"/>
+      <c r="CQ24" s="16"/>
+      <c r="CR24" s="16"/>
+      <c r="CS24" s="16"/>
+      <c r="CT24" s="16"/>
+      <c r="CU24" s="16"/>
+      <c r="CV24" s="16"/>
+      <c r="CW24" s="16"/>
+      <c r="CX24" s="16"/>
+      <c r="CY24" s="16"/>
+      <c r="CZ24" s="16"/>
+      <c r="DA24" s="16"/>
+      <c r="DB24" s="16"/>
+      <c r="DC24" s="16"/>
+      <c r="DD24" s="16"/>
+      <c r="DE24" s="16"/>
+      <c r="DF24" s="16"/>
+      <c r="DG24" s="16"/>
+      <c r="DH24" s="16"/>
+      <c r="DI24" s="16"/>
+      <c r="DJ24" s="16"/>
+      <c r="DK24" s="16"/>
+      <c r="DL24" s="16"/>
+      <c r="DM24" s="16"/>
+      <c r="DN24" s="16"/>
+      <c r="DO24" s="16"/>
+      <c r="DP24" s="16"/>
+      <c r="DQ24" s="16"/>
+      <c r="DR24" s="16"/>
+      <c r="DS24" s="16"/>
+      <c r="DT24" s="16"/>
+      <c r="DU24" s="16"/>
+      <c r="DV24" s="16"/>
+      <c r="DW24" s="16"/>
+      <c r="DX24" s="16"/>
+      <c r="DY24" s="16"/>
+      <c r="DZ24" s="16"/>
+      <c r="EA24" s="16"/>
+      <c r="EB24" s="16"/>
+      <c r="EC24" s="16"/>
+      <c r="ED24" s="16"/>
+      <c r="EE24" s="16"/>
+      <c r="EF24" s="16"/>
+      <c r="EG24" s="16"/>
+      <c r="EH24" s="16"/>
+      <c r="EI24" s="16"/>
+      <c r="EJ24" s="16"/>
+      <c r="EK24" s="16"/>
+      <c r="EL24" s="16"/>
+      <c r="EM24" s="16"/>
+      <c r="EN24" s="16"/>
+      <c r="EO24" s="16"/>
+      <c r="EP24" s="16"/>
+      <c r="EQ24" s="16"/>
+      <c r="ER24" s="16"/>
+      <c r="ES24" s="16"/>
+      <c r="ET24" s="16"/>
+      <c r="EU24" s="16"/>
+      <c r="EV24" s="16"/>
+      <c r="EW24" s="16"/>
+      <c r="EX24" s="16"/>
+      <c r="EY24" s="16"/>
+      <c r="EZ24" s="16"/>
+      <c r="FA24" s="16"/>
+      <c r="FB24" s="16"/>
+      <c r="FC24" s="16"/>
+      <c r="FD24" s="16"/>
+      <c r="FE24" s="16"/>
+      <c r="FF24" s="16"/>
+      <c r="FG24" s="16"/>
+      <c r="FH24" s="16"/>
+      <c r="FI24" s="16"/>
+      <c r="FJ24" s="16"/>
+      <c r="FK24" s="16"/>
+      <c r="FL24" s="16"/>
+      <c r="FM24" s="16"/>
+      <c r="FN24" s="16"/>
+      <c r="FO24" s="16"/>
+      <c r="FP24" s="16"/>
+      <c r="FQ24" s="16"/>
+      <c r="FR24" s="16"/>
+      <c r="FS24" s="16"/>
+      <c r="FT24" s="16"/>
+      <c r="FU24" s="16"/>
+      <c r="FV24" s="16"/>
+      <c r="FW24" s="16"/>
+      <c r="FX24" s="16"/>
+      <c r="FY24" s="16"/>
+      <c r="FZ24" s="16"/>
+      <c r="GA24" s="16"/>
+      <c r="GB24" s="16"/>
+      <c r="GC24" s="16"/>
+      <c r="GD24" s="16"/>
+      <c r="GE24" s="16"/>
+      <c r="GF24" s="16"/>
+      <c r="GG24" s="16"/>
+      <c r="GH24" s="16"/>
+      <c r="GI24" s="16"/>
+    </row>
+    <row r="25" spans="1:191" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2.665E-2</v>
+      </c>
+      <c r="C25" s="6">
+        <f>B25/4.43</f>
+        <v>6.015801354401806E-3</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="16"/>
+      <c r="AF25" s="16"/>
+      <c r="AG25" s="16"/>
+      <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
+      <c r="AJ25" s="16"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="16"/>
+      <c r="AM25" s="16"/>
+      <c r="AN25" s="16"/>
+      <c r="AO25" s="16"/>
+      <c r="AP25" s="16"/>
+      <c r="AQ25" s="16"/>
+      <c r="AR25" s="16"/>
+      <c r="AS25" s="16"/>
+      <c r="AT25" s="16"/>
+      <c r="AU25" s="16"/>
+      <c r="AV25" s="16"/>
+      <c r="AW25" s="16"/>
+      <c r="AX25" s="16"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="16"/>
+      <c r="BA25" s="16"/>
+      <c r="BB25" s="16"/>
+      <c r="BC25" s="16"/>
+      <c r="BD25" s="16"/>
+      <c r="BE25" s="16"/>
+      <c r="BF25" s="16"/>
+      <c r="BG25" s="16"/>
+      <c r="BH25" s="16"/>
+      <c r="BI25" s="16"/>
+      <c r="BJ25" s="16"/>
+      <c r="BK25" s="16"/>
+      <c r="BL25" s="16"/>
+      <c r="BM25" s="16"/>
+      <c r="BN25" s="16"/>
+      <c r="BO25" s="16"/>
+      <c r="BP25" s="16"/>
+      <c r="BQ25" s="16"/>
+      <c r="BR25" s="16"/>
+      <c r="BS25" s="16"/>
+      <c r="BT25" s="16"/>
+      <c r="BU25" s="16"/>
+      <c r="BV25" s="16"/>
+      <c r="BW25" s="16"/>
+      <c r="BX25" s="16"/>
+      <c r="BY25" s="16"/>
+      <c r="BZ25" s="16"/>
+      <c r="CA25" s="16"/>
+      <c r="CB25" s="16"/>
+      <c r="CC25" s="16"/>
+      <c r="CD25" s="16"/>
+      <c r="CE25" s="16"/>
+      <c r="CF25" s="16"/>
+      <c r="CG25" s="16"/>
+      <c r="CH25" s="16"/>
+      <c r="CI25" s="16"/>
+      <c r="CJ25" s="16"/>
+      <c r="CK25" s="16"/>
+      <c r="CL25" s="16"/>
+      <c r="CM25" s="16"/>
+      <c r="CN25" s="16"/>
+      <c r="CO25" s="16"/>
+      <c r="CP25" s="16"/>
+      <c r="CQ25" s="16"/>
+      <c r="CR25" s="16"/>
+      <c r="CS25" s="16"/>
+      <c r="CT25" s="16"/>
+      <c r="CU25" s="16"/>
+      <c r="CV25" s="16"/>
+      <c r="CW25" s="16"/>
+      <c r="CX25" s="16"/>
+      <c r="CY25" s="16"/>
+      <c r="CZ25" s="16"/>
+      <c r="DA25" s="16"/>
+      <c r="DB25" s="16"/>
+      <c r="DC25" s="16"/>
+      <c r="DD25" s="16"/>
+      <c r="DE25" s="16"/>
+      <c r="DF25" s="16"/>
+      <c r="DG25" s="16"/>
+      <c r="DH25" s="16"/>
+      <c r="DI25" s="16"/>
+      <c r="DJ25" s="16"/>
+      <c r="DK25" s="16"/>
+      <c r="DL25" s="16"/>
+      <c r="DM25" s="16"/>
+      <c r="DN25" s="16"/>
+      <c r="DO25" s="16"/>
+      <c r="DP25" s="16"/>
+      <c r="DQ25" s="16"/>
+      <c r="DR25" s="16"/>
+      <c r="DS25" s="16"/>
+      <c r="DT25" s="16"/>
+      <c r="DU25" s="16"/>
+      <c r="DV25" s="16"/>
+      <c r="DW25" s="16"/>
+      <c r="DX25" s="16"/>
+      <c r="DY25" s="16"/>
+      <c r="DZ25" s="16"/>
+      <c r="EA25" s="16"/>
+      <c r="EB25" s="16"/>
+      <c r="EC25" s="16"/>
+      <c r="ED25" s="16"/>
+      <c r="EE25" s="16"/>
+      <c r="EF25" s="16"/>
+      <c r="EG25" s="16"/>
+      <c r="EH25" s="16"/>
+      <c r="EI25" s="16"/>
+      <c r="EJ25" s="16"/>
+      <c r="EK25" s="16"/>
+      <c r="EL25" s="16"/>
+      <c r="EM25" s="16"/>
+      <c r="EN25" s="16"/>
+      <c r="EO25" s="16"/>
+      <c r="EP25" s="16"/>
+      <c r="EQ25" s="16"/>
+      <c r="ER25" s="16"/>
+      <c r="ES25" s="16"/>
+      <c r="ET25" s="16"/>
+      <c r="EU25" s="16"/>
+      <c r="EV25" s="16"/>
+      <c r="EW25" s="16"/>
+      <c r="EX25" s="16"/>
+      <c r="EY25" s="16"/>
+      <c r="EZ25" s="16"/>
+      <c r="FA25" s="16"/>
+      <c r="FB25" s="16"/>
+      <c r="FC25" s="16"/>
+      <c r="FD25" s="16"/>
+      <c r="FE25" s="16"/>
+      <c r="FF25" s="16"/>
+      <c r="FG25" s="16"/>
+      <c r="FH25" s="16"/>
+      <c r="FI25" s="16"/>
+      <c r="FJ25" s="16"/>
+      <c r="FK25" s="16"/>
+      <c r="FL25" s="16"/>
+      <c r="FM25" s="16"/>
+      <c r="FN25" s="16"/>
+      <c r="FO25" s="16"/>
+      <c r="FP25" s="16"/>
+      <c r="FQ25" s="16"/>
+      <c r="FR25" s="16"/>
+      <c r="FS25" s="16"/>
+      <c r="FT25" s="16"/>
+      <c r="FU25" s="16"/>
+      <c r="FV25" s="16"/>
+      <c r="FW25" s="16"/>
+      <c r="FX25" s="16"/>
+      <c r="FY25" s="16"/>
+      <c r="FZ25" s="16"/>
+      <c r="GA25" s="16"/>
+      <c r="GB25" s="16"/>
+      <c r="GC25" s="16"/>
+      <c r="GD25" s="16"/>
+      <c r="GE25" s="16"/>
+      <c r="GF25" s="16"/>
+      <c r="GG25" s="16"/>
+      <c r="GH25" s="16"/>
+      <c r="GI25" s="16"/>
+    </row>
+    <row r="26" spans="1:191" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>28</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2.5829999999999999E-2</v>
+      </c>
+      <c r="C26" s="5">
+        <f>B26/4.43</f>
+        <v>5.8306997742663654E-3</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+      <c r="BQ26" s="2"/>
+      <c r="BR26" s="2"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="2"/>
+      <c r="BV26" s="2"/>
+      <c r="BW26" s="2"/>
+      <c r="BX26" s="2"/>
+      <c r="BY26" s="2"/>
+      <c r="BZ26" s="2"/>
+      <c r="CA26" s="2"/>
+      <c r="CB26" s="2"/>
+      <c r="CC26" s="2"/>
+      <c r="CD26" s="2"/>
+      <c r="CE26" s="2"/>
+      <c r="CF26" s="2"/>
+      <c r="CG26" s="2"/>
+      <c r="CH26" s="2"/>
+      <c r="CI26" s="2"/>
+      <c r="CJ26" s="2"/>
+      <c r="CK26" s="2"/>
+      <c r="CL26" s="2"/>
+      <c r="CM26" s="2"/>
+      <c r="CN26" s="2"/>
+      <c r="CO26" s="2"/>
+      <c r="CP26" s="2"/>
+      <c r="CQ26" s="2"/>
+      <c r="CR26" s="2"/>
+      <c r="CS26" s="2"/>
+      <c r="CT26" s="2"/>
+      <c r="CU26" s="2"/>
+      <c r="CV26" s="2"/>
+      <c r="CW26" s="2"/>
+      <c r="CX26" s="2"/>
+      <c r="CY26" s="2"/>
+      <c r="CZ26" s="2"/>
+      <c r="DA26" s="2"/>
+      <c r="DB26" s="2"/>
+      <c r="DC26" s="2"/>
+      <c r="DD26" s="2"/>
+      <c r="DE26" s="2"/>
+      <c r="DF26" s="2"/>
+      <c r="DG26" s="2"/>
+      <c r="DH26" s="2"/>
+      <c r="DI26" s="2"/>
+      <c r="DJ26" s="2"/>
+      <c r="DK26" s="2"/>
+      <c r="DL26" s="2"/>
+      <c r="DM26" s="2"/>
+      <c r="DN26" s="2"/>
+      <c r="DO26" s="2"/>
+      <c r="DP26" s="2"/>
+      <c r="DQ26" s="2"/>
+      <c r="DR26" s="2"/>
+      <c r="DS26" s="2"/>
+      <c r="DT26" s="2"/>
+      <c r="DU26" s="2"/>
+      <c r="DV26" s="2"/>
+      <c r="DW26" s="2"/>
+      <c r="DX26" s="2"/>
+      <c r="DY26" s="2"/>
+      <c r="DZ26" s="2"/>
+      <c r="EA26" s="2"/>
+      <c r="EB26" s="2"/>
+      <c r="EC26" s="2"/>
+      <c r="ED26" s="2"/>
+      <c r="EE26" s="2"/>
+      <c r="EF26" s="2"/>
+      <c r="EG26" s="2"/>
+      <c r="EH26" s="2"/>
+      <c r="EI26" s="2"/>
+      <c r="EJ26" s="2"/>
+      <c r="EK26" s="2"/>
+      <c r="EL26" s="2"/>
+      <c r="EM26" s="2"/>
+      <c r="EN26" s="2"/>
+      <c r="EO26" s="2"/>
+      <c r="EP26" s="2"/>
+      <c r="EQ26" s="2"/>
+      <c r="ER26" s="2"/>
+      <c r="ES26" s="2"/>
+      <c r="ET26" s="2"/>
+      <c r="EU26" s="2"/>
+      <c r="EV26" s="2"/>
+      <c r="EW26" s="2"/>
+      <c r="EX26" s="2"/>
+      <c r="EY26" s="2"/>
+      <c r="EZ26" s="2"/>
+      <c r="FA26" s="2"/>
+      <c r="FB26" s="2"/>
+      <c r="FC26" s="2"/>
+      <c r="FD26" s="2"/>
+      <c r="FE26" s="2"/>
+      <c r="FF26" s="2"/>
+      <c r="FG26" s="2"/>
+      <c r="FH26" s="2"/>
+      <c r="FI26" s="2"/>
+      <c r="FJ26" s="2"/>
+      <c r="FK26" s="2"/>
+      <c r="FL26" s="2"/>
+      <c r="FM26" s="2"/>
+      <c r="FN26" s="2"/>
+      <c r="FO26" s="2"/>
+      <c r="FP26" s="2"/>
+      <c r="FQ26" s="2"/>
+      <c r="FR26" s="2"/>
+      <c r="FS26" s="2"/>
+      <c r="FT26" s="2"/>
+      <c r="FU26" s="2"/>
+      <c r="FV26" s="2"/>
+      <c r="FW26" s="2"/>
+      <c r="FX26" s="2"/>
+      <c r="FY26" s="2"/>
+      <c r="FZ26" s="2"/>
+      <c r="GA26" s="2"/>
+      <c r="GB26" s="2"/>
+      <c r="GC26" s="2"/>
+      <c r="GD26" s="2"/>
+      <c r="GE26" s="2"/>
+      <c r="GF26" s="2"/>
+      <c r="GG26" s="2"/>
+      <c r="GH26" s="2"/>
+      <c r="GI26" s="2"/>
+    </row>
+    <row r="27" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1.525E-2</v>
+      </c>
+      <c r="C27" s="5">
+        <f>B27/4.43</f>
+        <v>3.4424379232505646E-3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:191" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1.239E-2</v>
+      </c>
+      <c r="C28" s="5">
+        <f>B28/4.43</f>
+        <v>2.796839729119639E-3</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
+      <c r="BU28" s="2"/>
+      <c r="BV28" s="2"/>
+      <c r="BW28" s="2"/>
+      <c r="BX28" s="2"/>
+      <c r="BY28" s="2"/>
+      <c r="BZ28" s="2"/>
+      <c r="CA28" s="2"/>
+      <c r="CB28" s="2"/>
+      <c r="CC28" s="2"/>
+      <c r="CD28" s="2"/>
+      <c r="CE28" s="2"/>
+      <c r="CF28" s="2"/>
+      <c r="CG28" s="2"/>
+      <c r="CH28" s="2"/>
+      <c r="CI28" s="2"/>
+      <c r="CJ28" s="2"/>
+      <c r="CK28" s="2"/>
+      <c r="CL28" s="2"/>
+      <c r="CM28" s="2"/>
+      <c r="CN28" s="2"/>
+      <c r="CO28" s="2"/>
+      <c r="CP28" s="2"/>
+      <c r="CQ28" s="2"/>
+      <c r="CR28" s="2"/>
+      <c r="CS28" s="2"/>
+      <c r="CT28" s="2"/>
+      <c r="CU28" s="2"/>
+      <c r="CV28" s="2"/>
+      <c r="CW28" s="2"/>
+      <c r="CX28" s="2"/>
+      <c r="CY28" s="2"/>
+      <c r="CZ28" s="2"/>
+      <c r="DA28" s="2"/>
+      <c r="DB28" s="2"/>
+      <c r="DC28" s="2"/>
+      <c r="DD28" s="2"/>
+      <c r="DE28" s="2"/>
+      <c r="DF28" s="2"/>
+      <c r="DG28" s="2"/>
+      <c r="DH28" s="2"/>
+      <c r="DI28" s="2"/>
+      <c r="DJ28" s="2"/>
+      <c r="DK28" s="2"/>
+      <c r="DL28" s="2"/>
+      <c r="DM28" s="2"/>
+      <c r="DN28" s="2"/>
+      <c r="DO28" s="2"/>
+      <c r="DP28" s="2"/>
+      <c r="DQ28" s="2"/>
+      <c r="DR28" s="2"/>
+      <c r="DS28" s="2"/>
+      <c r="DT28" s="2"/>
+      <c r="DU28" s="2"/>
+      <c r="DV28" s="2"/>
+      <c r="DW28" s="2"/>
+      <c r="DX28" s="2"/>
+      <c r="DY28" s="2"/>
+      <c r="DZ28" s="2"/>
+      <c r="EA28" s="2"/>
+      <c r="EB28" s="2"/>
+      <c r="EC28" s="2"/>
+      <c r="ED28" s="2"/>
+      <c r="EE28" s="2"/>
+      <c r="EF28" s="2"/>
+      <c r="EG28" s="2"/>
+      <c r="EH28" s="2"/>
+      <c r="EI28" s="2"/>
+      <c r="EJ28" s="2"/>
+      <c r="EK28" s="2"/>
+      <c r="EL28" s="2"/>
+      <c r="EM28" s="2"/>
+      <c r="EN28" s="2"/>
+      <c r="EO28" s="2"/>
+      <c r="EP28" s="2"/>
+      <c r="EQ28" s="2"/>
+      <c r="ER28" s="2"/>
+      <c r="ES28" s="2"/>
+      <c r="ET28" s="2"/>
+      <c r="EU28" s="2"/>
+      <c r="EV28" s="2"/>
+      <c r="EW28" s="2"/>
+      <c r="EX28" s="2"/>
+      <c r="EY28" s="2"/>
+      <c r="EZ28" s="2"/>
+      <c r="FA28" s="2"/>
+      <c r="FB28" s="2"/>
+      <c r="FC28" s="2"/>
+      <c r="FD28" s="2"/>
+      <c r="FE28" s="2"/>
+      <c r="FF28" s="2"/>
+      <c r="FG28" s="2"/>
+      <c r="FH28" s="2"/>
+      <c r="FI28" s="2"/>
+      <c r="FJ28" s="2"/>
+      <c r="FK28" s="2"/>
+      <c r="FL28" s="2"/>
+      <c r="FM28" s="2"/>
+      <c r="FN28" s="2"/>
+      <c r="FO28" s="2"/>
+      <c r="FP28" s="2"/>
+      <c r="FQ28" s="2"/>
+      <c r="FR28" s="2"/>
+      <c r="FS28" s="2"/>
+      <c r="FT28" s="2"/>
+      <c r="FU28" s="2"/>
+      <c r="FV28" s="2"/>
+      <c r="FW28" s="2"/>
+      <c r="FX28" s="2"/>
+      <c r="FY28" s="2"/>
+      <c r="FZ28" s="2"/>
+      <c r="GA28" s="2"/>
+      <c r="GB28" s="2"/>
+      <c r="GC28" s="2"/>
+      <c r="GD28" s="2"/>
+      <c r="GE28" s="2"/>
+      <c r="GF28" s="2"/>
+      <c r="GG28" s="2"/>
+      <c r="GH28" s="2"/>
+      <c r="GI28" s="2"/>
+    </row>
+    <row r="29" spans="1:191" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>22</v>
+      </c>
+      <c r="B29" s="13">
+        <v>9.0299999999999998E-3</v>
+      </c>
+      <c r="C29" s="14">
+        <f>B29/4.43</f>
+        <v>2.0383747178329571E-3</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="2"/>
+      <c r="BU29" s="2"/>
+      <c r="BV29" s="2"/>
+      <c r="BW29" s="2"/>
+      <c r="BX29" s="2"/>
+      <c r="BY29" s="2"/>
+      <c r="BZ29" s="2"/>
+      <c r="CA29" s="2"/>
+      <c r="CB29" s="2"/>
+      <c r="CC29" s="2"/>
+      <c r="CD29" s="2"/>
+      <c r="CE29" s="2"/>
+      <c r="CF29" s="2"/>
+      <c r="CG29" s="2"/>
+      <c r="CH29" s="2"/>
+      <c r="CI29" s="2"/>
+      <c r="CJ29" s="2"/>
+      <c r="CK29" s="2"/>
+      <c r="CL29" s="2"/>
+      <c r="CM29" s="2"/>
+      <c r="CN29" s="2"/>
+      <c r="CO29" s="2"/>
+      <c r="CP29" s="2"/>
+      <c r="CQ29" s="2"/>
+      <c r="CR29" s="2"/>
+      <c r="CS29" s="2"/>
+      <c r="CT29" s="2"/>
+      <c r="CU29" s="2"/>
+      <c r="CV29" s="2"/>
+      <c r="CW29" s="2"/>
+      <c r="CX29" s="2"/>
+      <c r="CY29" s="2"/>
+      <c r="CZ29" s="2"/>
+      <c r="DA29" s="2"/>
+      <c r="DB29" s="2"/>
+      <c r="DC29" s="2"/>
+      <c r="DD29" s="2"/>
+      <c r="DE29" s="2"/>
+      <c r="DF29" s="2"/>
+      <c r="DG29" s="2"/>
+      <c r="DH29" s="2"/>
+      <c r="DI29" s="2"/>
+      <c r="DJ29" s="2"/>
+      <c r="DK29" s="2"/>
+      <c r="DL29" s="2"/>
+      <c r="DM29" s="2"/>
+      <c r="DN29" s="2"/>
+      <c r="DO29" s="2"/>
+      <c r="DP29" s="2"/>
+      <c r="DQ29" s="2"/>
+      <c r="DR29" s="2"/>
+      <c r="DS29" s="2"/>
+      <c r="DT29" s="2"/>
+      <c r="DU29" s="2"/>
+      <c r="DV29" s="2"/>
+      <c r="DW29" s="2"/>
+      <c r="DX29" s="2"/>
+      <c r="DY29" s="2"/>
+      <c r="DZ29" s="2"/>
+      <c r="EA29" s="2"/>
+      <c r="EB29" s="2"/>
+      <c r="EC29" s="2"/>
+      <c r="ED29" s="2"/>
+      <c r="EE29" s="2"/>
+      <c r="EF29" s="2"/>
+      <c r="EG29" s="2"/>
+      <c r="EH29" s="2"/>
+      <c r="EI29" s="2"/>
+      <c r="EJ29" s="2"/>
+      <c r="EK29" s="2"/>
+      <c r="EL29" s="2"/>
+      <c r="EM29" s="2"/>
+      <c r="EN29" s="2"/>
+      <c r="EO29" s="2"/>
+      <c r="EP29" s="2"/>
+      <c r="EQ29" s="2"/>
+      <c r="ER29" s="2"/>
+      <c r="ES29" s="2"/>
+      <c r="ET29" s="2"/>
+      <c r="EU29" s="2"/>
+      <c r="EV29" s="2"/>
+      <c r="EW29" s="2"/>
+      <c r="EX29" s="2"/>
+      <c r="EY29" s="2"/>
+      <c r="EZ29" s="2"/>
+      <c r="FA29" s="2"/>
+      <c r="FB29" s="2"/>
+      <c r="FC29" s="2"/>
+      <c r="FD29" s="2"/>
+      <c r="FE29" s="2"/>
+      <c r="FF29" s="2"/>
+      <c r="FG29" s="2"/>
+      <c r="FH29" s="2"/>
+      <c r="FI29" s="2"/>
+      <c r="FJ29" s="2"/>
+      <c r="FK29" s="2"/>
+      <c r="FL29" s="2"/>
+      <c r="FM29" s="2"/>
+      <c r="FN29" s="2"/>
+      <c r="FO29" s="2"/>
+      <c r="FP29" s="2"/>
+      <c r="FQ29" s="2"/>
+      <c r="FR29" s="2"/>
+      <c r="FS29" s="2"/>
+      <c r="FT29" s="2"/>
+      <c r="FU29" s="2"/>
+      <c r="FV29" s="2"/>
+      <c r="FW29" s="2"/>
+      <c r="FX29" s="2"/>
+      <c r="FY29" s="2"/>
+      <c r="FZ29" s="2"/>
+      <c r="GA29" s="2"/>
+      <c r="GB29" s="2"/>
+      <c r="GC29" s="2"/>
+      <c r="GD29" s="2"/>
+      <c r="GE29" s="2"/>
+      <c r="GF29" s="2"/>
+      <c r="GG29" s="2"/>
+      <c r="GH29" s="2"/>
+      <c r="GI29" s="2"/>
+    </row>
+    <row r="30" spans="1:191" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>26</v>
+      </c>
+      <c r="B30" s="8">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="C30" s="6">
+        <f>B30/4.43</f>
+        <v>1.3318284424379233E-3</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="2"/>
+      <c r="BR30" s="2"/>
+      <c r="BS30" s="2"/>
+      <c r="BT30" s="2"/>
+      <c r="BU30" s="2"/>
+      <c r="BV30" s="2"/>
+      <c r="BW30" s="2"/>
+      <c r="BX30" s="2"/>
+      <c r="BY30" s="2"/>
+      <c r="BZ30" s="2"/>
+      <c r="CA30" s="2"/>
+      <c r="CB30" s="2"/>
+      <c r="CC30" s="2"/>
+      <c r="CD30" s="2"/>
+      <c r="CE30" s="2"/>
+      <c r="CF30" s="2"/>
+      <c r="CG30" s="2"/>
+      <c r="CH30" s="2"/>
+      <c r="CI30" s="2"/>
+      <c r="CJ30" s="2"/>
+      <c r="CK30" s="2"/>
+      <c r="CL30" s="2"/>
+      <c r="CM30" s="2"/>
+      <c r="CN30" s="2"/>
+      <c r="CO30" s="2"/>
+      <c r="CP30" s="2"/>
+      <c r="CQ30" s="2"/>
+      <c r="CR30" s="2"/>
+      <c r="CS30" s="2"/>
+      <c r="CT30" s="2"/>
+      <c r="CU30" s="2"/>
+      <c r="CV30" s="2"/>
+      <c r="CW30" s="2"/>
+      <c r="CX30" s="2"/>
+      <c r="CY30" s="2"/>
+      <c r="CZ30" s="2"/>
+      <c r="DA30" s="2"/>
+      <c r="DB30" s="2"/>
+      <c r="DC30" s="2"/>
+      <c r="DD30" s="2"/>
+      <c r="DE30" s="2"/>
+      <c r="DF30" s="2"/>
+      <c r="DG30" s="2"/>
+      <c r="DH30" s="2"/>
+      <c r="DI30" s="2"/>
+      <c r="DJ30" s="2"/>
+      <c r="DK30" s="2"/>
+      <c r="DL30" s="2"/>
+      <c r="DM30" s="2"/>
+      <c r="DN30" s="2"/>
+      <c r="DO30" s="2"/>
+      <c r="DP30" s="2"/>
+      <c r="DQ30" s="2"/>
+      <c r="DR30" s="2"/>
+      <c r="DS30" s="2"/>
+      <c r="DT30" s="2"/>
+      <c r="DU30" s="2"/>
+      <c r="DV30" s="2"/>
+      <c r="DW30" s="2"/>
+      <c r="DX30" s="2"/>
+      <c r="DY30" s="2"/>
+      <c r="DZ30" s="2"/>
+      <c r="EA30" s="2"/>
+      <c r="EB30" s="2"/>
+      <c r="EC30" s="2"/>
+      <c r="ED30" s="2"/>
+      <c r="EE30" s="2"/>
+      <c r="EF30" s="2"/>
+      <c r="EG30" s="2"/>
+      <c r="EH30" s="2"/>
+      <c r="EI30" s="2"/>
+      <c r="EJ30" s="2"/>
+      <c r="EK30" s="2"/>
+      <c r="EL30" s="2"/>
+      <c r="EM30" s="2"/>
+      <c r="EN30" s="2"/>
+      <c r="EO30" s="2"/>
+      <c r="EP30" s="2"/>
+      <c r="EQ30" s="2"/>
+      <c r="ER30" s="2"/>
+      <c r="ES30" s="2"/>
+      <c r="ET30" s="2"/>
+      <c r="EU30" s="2"/>
+      <c r="EV30" s="2"/>
+      <c r="EW30" s="2"/>
+      <c r="EX30" s="2"/>
+      <c r="EY30" s="2"/>
+      <c r="EZ30" s="2"/>
+      <c r="FA30" s="2"/>
+      <c r="FB30" s="2"/>
+      <c r="FC30" s="2"/>
+      <c r="FD30" s="2"/>
+      <c r="FE30" s="2"/>
+      <c r="FF30" s="2"/>
+      <c r="FG30" s="2"/>
+      <c r="FH30" s="2"/>
+      <c r="FI30" s="2"/>
+      <c r="FJ30" s="2"/>
+      <c r="FK30" s="2"/>
+      <c r="FL30" s="2"/>
+      <c r="FM30" s="2"/>
+      <c r="FN30" s="2"/>
+      <c r="FO30" s="2"/>
+      <c r="FP30" s="2"/>
+      <c r="FQ30" s="2"/>
+      <c r="FR30" s="2"/>
+      <c r="FS30" s="2"/>
+      <c r="FT30" s="2"/>
+      <c r="FU30" s="2"/>
+      <c r="FV30" s="2"/>
+      <c r="FW30" s="2"/>
+      <c r="FX30" s="2"/>
+      <c r="FY30" s="2"/>
+      <c r="FZ30" s="2"/>
+      <c r="GA30" s="2"/>
+      <c r="GB30" s="2"/>
+      <c r="GC30" s="2"/>
+      <c r="GD30" s="2"/>
+      <c r="GE30" s="2"/>
+      <c r="GF30" s="2"/>
+      <c r="GG30" s="2"/>
+      <c r="GH30" s="2"/>
+      <c r="GI30" s="2"/>
+    </row>
+    <row r="31" spans="1:191" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" s="7">
+        <v>5.8900000000000003E-3</v>
+      </c>
+      <c r="C31" s="5">
+        <f>B31/4.43</f>
+        <v>1.3295711060948084E-3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.13381000000000001</v>
-      </c>
-      <c r="C3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.10487</v>
-      </c>
-      <c r="C4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.24096000000000001</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.14754999999999999</v>
-      </c>
-      <c r="C6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>5.8900000000000003E-3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6.0019999999999997E-2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.48460999999999999</v>
-      </c>
-      <c r="C9" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>6.9010000000000002E-2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.38463000000000003</v>
-      </c>
-      <c r="C11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>3.0839999999999999E-2</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>4.4159999999999998E-2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>3.7019999999999997E-2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2.665E-2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>8.8620000000000004E-2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0.10162</v>
-      </c>
-      <c r="C17" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0.38346999999999998</v>
-      </c>
-      <c r="C18" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.99441999999999997</v>
-      </c>
-      <c r="C19" t="s">
-        <v>247</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1.525E-2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>8.7970000000000007E-2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>249</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>6.8599999999999994E-2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>9.0299999999999998E-3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0.27556000000000003</v>
-      </c>
-      <c r="C24" t="s">
-        <v>251</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>3.0980000000000001E-2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0.31001000000000001</v>
-      </c>
-      <c r="C26" t="s">
-        <v>253</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>5.8999999999999999E-3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>1.239E-2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>231</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>2.5829999999999999E-2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>4.8370000000000003E-2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D30">
-    <sortCondition ref="C1"/>
+  <sortState ref="A2:E31">
+    <sortCondition descending="1" ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1612,7 +5675,7 @@
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -1638,95 +5701,95 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C1" t="str">
-        <f t="array" ref="C1:AF1">TRANSPOSE(keys!C1:C30)</f>
+        <f t="array" ref="C1:AF1">TRANSPOSE(keys!D2:D31)</f>
+        <v>expl_act</v>
+      </c>
+      <c r="D1" t="str">
+        <v>expl_sailing</v>
+      </c>
+      <c r="E1" t="str">
+        <v>expl_dominon</v>
+      </c>
+      <c r="F1" t="str">
+        <v>expl_desc</v>
+      </c>
+      <c r="G1" t="str">
+        <v>col_supplication?</v>
+      </c>
+      <c r="H1" t="str">
+        <v>sailing_fight</v>
+      </c>
+      <c r="I1" t="str">
+        <v>contact?</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Sp_col</v>
+      </c>
+      <c r="K1" t="str">
+        <v>En_expl</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Sp_fight</v>
+      </c>
+      <c r="M1" t="str">
         <v>legal_land_poss</v>
       </c>
-      <c r="D1" t="str">
+      <c r="N1" t="str">
+        <v>sailing_expl</v>
+      </c>
+      <c r="O1" s="2" t="str">
         <v>Sp_col</v>
       </c>
-      <c r="E1" t="str">
-        <v>En_expl</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Sp_fight</v>
-      </c>
-      <c r="G1" t="str">
-        <v>contact?</v>
-      </c>
-      <c r="H1" t="str">
+      <c r="P1" t="str">
+        <v>NW_passage_expl</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>sailing_contact</v>
+      </c>
+      <c r="R1" t="str">
+        <v>sailing</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Indians_land_desc</v>
+      </c>
+      <c r="T1" t="str">
+        <v>trade(slave?)</v>
+      </c>
+      <c r="U1" t="str">
+        <v>geog</v>
+      </c>
+      <c r="V1" t="str">
+        <v>sailing_navigation</v>
+      </c>
+      <c r="W1" t="str">
+        <v>Virginia_Ind_En</v>
+      </c>
+      <c r="X1" t="str">
+        <v>china_war_dom</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Fr_Sp_Ind</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Fr_plant</v>
+      </c>
+      <c r="AA1" t="str">
         <v>Sp_col</v>
       </c>
-      <c r="I1" t="str">
+      <c r="AB1" t="str">
+        <v>columb_cabot</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>indians</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>fight_En_Sp</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>lng_Sp_col</v>
+      </c>
+      <c r="AF1" t="str">
         <v>lng_Lat_dominion</v>
-      </c>
-      <c r="J1" t="str">
-        <v>trade(slave?)</v>
-      </c>
-      <c r="K1" t="str">
-        <v>expl_sailing</v>
-      </c>
-      <c r="L1" t="str">
-        <v>sailing</v>
-      </c>
-      <c r="M1" t="str">
-        <v>expl_dominon</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Fr_Sp_Ind</v>
-      </c>
-      <c r="O1" s="2" t="str">
-        <v>sailing_navigation</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Virginia_Ind_En</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>Fr_plant</v>
-      </c>
-      <c r="R1" t="str">
-        <v>NW_passage_expl</v>
-      </c>
-      <c r="S1" t="str">
-        <v>sailing_expl</v>
-      </c>
-      <c r="T1" t="str">
-        <v>expl_desc</v>
-      </c>
-      <c r="U1" t="str">
-        <v>expl_act</v>
-      </c>
-      <c r="V1" t="str">
-        <v>columb_cabot</v>
-      </c>
-      <c r="W1" t="str">
-        <v>sailing_contact</v>
-      </c>
-      <c r="X1" t="str">
-        <v>Indians_land_desc</v>
-      </c>
-      <c r="Y1" t="str">
-        <v>fight_En_Sp</v>
-      </c>
-      <c r="Z1" t="str">
-        <v>sailing_fight</v>
-      </c>
-      <c r="AA1" t="str">
-        <v>china_war_dom</v>
-      </c>
-      <c r="AB1" t="str">
-        <v>col_supplication?</v>
-      </c>
-      <c r="AC1" t="str">
-        <v>lng_Sp_col</v>
-      </c>
-      <c r="AD1" t="str">
-        <v>indians</v>
-      </c>
-      <c r="AE1" t="str">
-        <v>Sp_col</v>
-      </c>
-      <c r="AF1" t="str">
-        <v>geog</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -1734,7 +5797,7 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1">
         <v>6.2026777543669595E-4</v>
@@ -1832,7 +5895,7 @@
         <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1">
         <v>3.2922397224789798E-4</v>
@@ -1930,7 +5993,7 @@
         <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1">
         <v>4.7149816633109001E-5</v>
@@ -2028,7 +6091,7 @@
         <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1">
         <v>6.9230270034221499E-4</v>
@@ -2126,7 +6189,7 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C6" s="1">
         <v>5.6536259069553201E-4</v>
@@ -2224,7 +6287,7 @@
         <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1">
         <v>3.9348007791990098E-4</v>
@@ -2322,7 +6385,7 @@
         <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1">
         <v>1.0681802755742101E-4</v>
@@ -2420,7 +6483,7 @@
         <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1">
         <v>3.5727375008476E-4</v>
@@ -2518,7 +6581,7 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1">
         <v>3.8497912892350002E-2</v>
@@ -2616,7 +6679,7 @@
         <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1">
         <v>3.0775412780275099E-5</v>
@@ -2714,7 +6777,7 @@
         <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1">
         <v>4.5433366958134998E-5</v>
@@ -2812,7 +6875,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
         <v>4.12038392718364E-4</v>
@@ -2910,7 +6973,7 @@
         <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
         <v>4.5298793104008202E-4</v>
@@ -3008,7 +7071,7 @@
         <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1">
         <v>5.6536259069553201E-4</v>
@@ -3106,7 +7169,7 @@
         <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1">
         <v>5.5872277353230396E-4</v>
@@ -3204,7 +7267,7 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1">
         <v>2.7839226205130501E-2</v>
@@ -3302,7 +7365,7 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C18" s="1">
         <v>9.0330717006782593E-2</v>
@@ -3400,7 +7463,7 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1">
         <v>1.6260439799763299E-2</v>
@@ -3498,7 +7561,7 @@
         <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C20" s="1">
         <v>5.4431588366756203E-3</v>
@@ -3596,7 +7659,7 @@
         <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1">
         <v>3.4144001451316498E-2</v>
@@ -3694,7 +7757,7 @@
         <v>196</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C22" s="1">
         <v>8.2919898218023196E-4</v>
@@ -3792,7 +7855,7 @@
         <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C23" s="1">
         <v>9.9261142812537298E-2</v>
@@ -3890,7 +7953,7 @@
         <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C24" s="1">
         <v>2.35356020437522E-4</v>
@@ -3988,7 +8051,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1">
         <v>4.3473701822983102E-2</v>
@@ -4086,7 +8149,7 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C26" s="1">
         <v>1.21296159213267E-3</v>
@@ -4184,7 +8247,7 @@
         <v>189</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C27" s="1">
         <v>1.7876735050202999E-4</v>
@@ -4282,7 +8345,7 @@
         <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1">
         <v>3.4664159861958599E-4</v>
@@ -4380,7 +8443,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1">
         <v>1.5053126665742501E-4</v>
@@ -4478,7 +8541,7 @@
         <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C30" s="1">
         <v>5.2044679157899603E-3</v>
@@ -4576,7 +8639,7 @@
         <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C31" s="1">
         <v>1.9707801552147599E-5</v>
@@ -4674,7 +8737,7 @@
         <v>175</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C32" s="1">
         <v>4.4746793102084003E-3</v>
@@ -4772,7 +8835,7 @@
         <v>183</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C33" s="1">
         <v>1.07827215885657E-5</v>
@@ -4870,7 +8933,7 @@
         <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C34" s="1">
         <v>2.5291134574655602E-3</v>
@@ -4968,7 +9031,7 @@
         <v>160</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C35" s="1">
         <v>2.47085501592062E-3</v>
@@ -5066,7 +9129,7 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1">
         <v>2.2579802196884698E-3</v>
@@ -5164,7 +9227,7 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1">
         <v>1.8254796593493701E-3</v>
@@ -5262,7 +9325,7 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1">
         <v>1.7942365990212599E-3</v>
@@ -5360,7 +9423,7 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C39" s="1">
         <v>1.7942365990212599E-3</v>
@@ -5458,7 +9521,7 @@
         <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C40" s="1">
         <v>7.8021778739735398E-2</v>
@@ -5556,7 +9619,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C41" s="1">
         <v>1.4277084334806899E-3</v>
@@ -5654,7 +9717,7 @@
         <v>176</v>
       </c>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C42" s="1">
         <v>1.4277084334806899E-3</v>
@@ -5752,7 +9815,7 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1">
         <v>7.4062335895868303E-2</v>
@@ -5850,7 +9913,7 @@
         <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C44" s="1">
         <v>2.35365501420924E-2</v>
@@ -5948,7 +10011,7 @@
         <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C45" s="1">
         <v>1.0038870061367499E-3</v>
@@ -6046,7 +10109,7 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1">
         <v>9.6685288195934305E-4</v>
@@ -6144,7 +10207,7 @@
         <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C47" s="1">
         <v>9.9723967100965E-4</v>
@@ -6242,7 +10305,7 @@
         <v>158</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C48" s="1">
         <v>9.3245397444464799E-4</v>
@@ -6340,7 +10403,7 @@
         <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C49" s="1">
         <v>8.3580992103437005E-4</v>
@@ -6438,7 +10501,7 @@
         <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C50" s="1">
         <v>2.9036509901353201E-5</v>
@@ -6536,7 +10599,7 @@
         <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C51" s="1">
         <v>7.7985229951827697E-4</v>
@@ -6634,7 +10697,7 @@
         <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C52" s="1">
         <v>8.0804552471655897E-2</v>
@@ -6732,7 +10795,7 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1">
         <v>7.4653200019712395E-4</v>
@@ -6830,7 +10893,7 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C54" s="1">
         <v>7.4125348187933395E-4</v>
@@ -6928,7 +10991,7 @@
         <v>171</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C55" s="1">
         <v>6.8776087582398402E-4</v>
@@ -7026,7 +11089,7 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C56" s="1">
         <v>6.8019801527879203E-3</v>
@@ -7124,7 +11187,7 @@
         <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C57" s="1">
         <v>6.1082854364405602E-2</v>
@@ -7222,7 +11285,7 @@
         <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C58" s="1">
         <v>8.8628661370921805E-2</v>
@@ -7320,7 +11383,7 @@
         <v>194</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C59" s="1">
         <v>6.4074985510873296E-3</v>
@@ -7418,7 +11481,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C60" s="1">
         <v>4.7812394893157299E-2</v>
@@ -7516,7 +11579,7 @@
         <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1">
         <v>3.15612217679122E-2</v>
@@ -7614,7 +11677,7 @@
         <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C62" s="1">
         <v>0.13869450266275599</v>
@@ -7712,7 +11775,7 @@
         <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C63" s="1">
         <v>5.2832295078072803E-4</v>
@@ -7810,7 +11873,7 @@
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C64" s="1">
         <v>5.1032026946108103E-4</v>
@@ -7908,7 +11971,7 @@
         <v>30</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C65" s="1">
         <v>0.45849492629609101</v>
@@ -8006,7 +12069,7 @@
         <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C66" s="1">
         <v>4.67116787225709E-4</v>
@@ -8104,7 +12167,7 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C67" s="1">
         <v>1.95019773555134E-2</v>
@@ -8202,7 +12265,7 @@
         <v>142</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C68" s="1">
         <v>4.5693677155508698E-4</v>
@@ -8300,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C69" s="1">
         <v>3.9004839139032403E-2</v>
@@ -8398,7 +12461,7 @@
         <v>186</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C70" s="1">
         <v>4.23695379677295E-4</v>
@@ -8496,7 +12559,7 @@
         <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C71" s="1">
         <v>4.1695476473751602E-4</v>
@@ -8594,7 +12657,7 @@
         <v>116</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C72" s="1">
         <v>4.1042526545876301E-4</v>
@@ -8692,7 +12755,7 @@
         <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C73" s="1">
         <v>3.9796114591868101E-4</v>
@@ -8790,7 +12853,7 @@
         <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C74" s="1">
         <v>3.8909880049832799E-4</v>
@@ -8888,7 +12951,7 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C75" s="1">
         <v>3.6987918572824202E-4</v>
@@ -8986,7 +13049,7 @@
         <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C76" s="1">
         <v>3.6857875551720001E-4</v>
@@ -9084,7 +13147,7 @@
         <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C77" s="1">
         <v>1.31384830349999E-2</v>
@@ -9182,7 +13245,7 @@
         <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C78" s="1">
         <v>3.4054802099855001E-3</v>
@@ -9280,7 +13343,7 @@
         <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C79" s="1">
         <v>3.1726771009644203E-4</v>
@@ -9378,7 +13441,7 @@
         <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C80" s="1">
         <v>0.27405857922573501</v>
@@ -9476,7 +13539,7 @@
         <v>59</v>
       </c>
       <c r="B81" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C81" s="1">
         <v>3.1441311418760299E-4</v>
@@ -9574,7 +13637,7 @@
         <v>163</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C82" s="1">
         <v>2.19984016004444E-2</v>
@@ -9672,7 +13735,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C83" s="1">
         <v>2.4381745161193801E-2</v>
@@ -9770,7 +13833,7 @@
         <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C84" s="1">
         <v>2.9041850129567599E-3</v>
@@ -9868,7 +13931,7 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C85" s="1">
         <v>0.26783192686004098</v>
@@ -9966,7 +14029,7 @@
         <v>187</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C86" s="1">
         <v>2.5542642062349199E-4</v>
@@ -10064,7 +14127,7 @@
         <v>153</v>
       </c>
       <c r="B87" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C87" s="1">
         <v>2.22375772504525E-4</v>
@@ -10162,7 +14225,7 @@
         <v>157</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C88" s="1">
         <v>2.13760569285859E-4</v>
@@ -10260,7 +14323,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C89" s="1">
         <v>2.1289237970877799E-4</v>
@@ -10358,7 +14421,7 @@
         <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C90" s="1">
         <v>2.19898876011598E-3</v>
@@ -10456,7 +14519,7 @@
         <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C91" s="1">
         <v>6.0005107804986099E-3</v>
@@ -10554,7 +14617,7 @@
         <v>130</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C92" s="1">
         <v>2.0182618638853601E-4</v>
@@ -10652,7 +14715,7 @@
         <v>52</v>
       </c>
       <c r="B93" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C93" s="1">
         <v>1.99901936905273E-4</v>
@@ -10750,7 +14813,7 @@
         <v>138</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C94" s="1">
         <v>1.99521481707713E-4</v>
@@ -10848,7 +14911,7 @@
         <v>152</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C95" s="1">
         <v>1.90113987938735E-4</v>
@@ -10946,7 +15009,7 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C96" s="1">
         <v>1.8942694689074699E-4</v>
@@ -11044,7 +15107,7 @@
         <v>64</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C97" s="1">
         <v>1.87730874730136E-4</v>
@@ -11142,7 +15205,7 @@
         <v>188</v>
       </c>
       <c r="B98" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C98" s="1">
         <v>5.3217063840487102E-3</v>
@@ -11240,7 +15303,7 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C99" s="1">
         <v>0.18954931585384499</v>
@@ -11338,7 +15401,7 @@
         <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C100" s="1">
         <v>1.7606525171197E-4</v>
@@ -11436,7 +15499,7 @@
         <v>165</v>
       </c>
       <c r="B101" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C101" s="1">
         <v>1.7401943694467399E-4</v>
@@ -11534,7 +15597,7 @@
         <v>58</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C102" s="1">
         <v>9.7766773234345301E-3</v>
@@ -11632,7 +15695,7 @@
         <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C103" s="1">
         <v>1.6142541658704501E-4</v>
@@ -11730,7 +15793,7 @@
         <v>192</v>
       </c>
       <c r="B104" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C104" s="1">
         <v>8.9630414806934094E-2</v>
@@ -11828,7 +15891,7 @@
         <v>162</v>
       </c>
       <c r="B105" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C105" s="1">
         <v>3.5582855595158697E-2</v>
@@ -11926,7 +15989,7 @@
         <v>47</v>
       </c>
       <c r="B106" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C106" s="1">
         <v>1.5452514884510801E-4</v>
@@ -12024,7 +16087,7 @@
         <v>195</v>
       </c>
       <c r="B107" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C107" s="1">
         <v>2.7995371175191301E-2</v>
@@ -12122,7 +16185,7 @@
         <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C108" s="1">
         <v>1.4104459435481401E-2</v>
@@ -12220,7 +16283,7 @@
         <v>143</v>
       </c>
       <c r="B109" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C109" s="1">
         <v>3.0345929039218501E-2</v>
@@ -12318,7 +16381,7 @@
         <v>149</v>
       </c>
       <c r="B110" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C110" s="1">
         <v>3.5788073166338301E-2</v>
@@ -12416,7 +16479,7 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C111" s="1">
         <v>1.39885609328087E-4</v>
@@ -12514,7 +16577,7 @@
         <v>144</v>
       </c>
       <c r="B112" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C112" s="1">
         <v>1.37681032405374E-4</v>
@@ -12612,7 +16675,7 @@
         <v>164</v>
       </c>
       <c r="B113" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C113" s="1">
         <v>1.37140703006117E-4</v>
@@ -12710,7 +16773,7 @@
         <v>147</v>
       </c>
       <c r="B114" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C114" s="1">
         <v>1.3696153442995901E-4</v>
@@ -12808,7 +16871,7 @@
         <v>128</v>
       </c>
       <c r="B115" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C115" s="1">
         <v>1.36426826650034E-4</v>
@@ -12906,7 +16969,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C116" s="1">
         <v>1.2951639403347299E-4</v>
@@ -13004,7 +17067,7 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C117" s="1">
         <v>0.78243172809417005</v>
@@ -13102,7 +17165,7 @@
         <v>25</v>
       </c>
       <c r="B118" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C118" s="1">
         <v>1.2919716338755401E-4</v>
@@ -13200,7 +17263,7 @@
         <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C119" s="1">
         <v>0.859524945655881</v>
@@ -13298,7 +17361,7 @@
         <v>150</v>
       </c>
       <c r="B120" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C120" s="1">
         <v>2.8112943736641201E-2</v>
@@ -13396,7 +17459,7 @@
         <v>173</v>
       </c>
       <c r="B121" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C121" s="1">
         <v>1.2030161846715801E-4</v>
@@ -13494,7 +17557,7 @@
         <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C122" s="1">
         <v>1.22974110228546E-3</v>
@@ -13592,7 +17655,7 @@
         <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C123" s="1">
         <v>1.2148667556608E-3</v>
@@ -13690,7 +17753,7 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C124" s="1">
         <v>1.11831736969602E-4</v>
@@ -13788,7 +17851,7 @@
         <v>113</v>
       </c>
       <c r="B125" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C125" s="1">
         <v>5.8040015060045899E-2</v>
@@ -13886,7 +17949,7 @@
         <v>67</v>
       </c>
       <c r="B126" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C126" s="1">
         <v>0.83657527238251395</v>
@@ -13984,7 +18047,7 @@
         <v>121</v>
       </c>
       <c r="B127" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C127" s="1">
         <v>3.2126896117218601E-3</v>
@@ -14082,7 +18145,7 @@
         <v>105</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C128" s="1">
         <v>7.0245553416431903E-3</v>
@@ -14180,7 +18243,7 @@
         <v>167</v>
       </c>
       <c r="B129" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C129" s="1">
         <v>2.4788853221291499E-2</v>
@@ -14278,7 +18341,7 @@
         <v>31</v>
       </c>
       <c r="B130" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C130" s="1">
         <v>1.88195720025284E-3</v>
@@ -14376,7 +18439,7 @@
         <v>180</v>
       </c>
       <c r="B131" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C131" s="1">
         <v>0.172195431542434</v>
@@ -14474,7 +18537,7 @@
         <v>190</v>
       </c>
       <c r="B132" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C132" s="1">
         <v>1.15519279249949E-2</v>
@@ -14572,7 +18635,7 @@
         <v>10</v>
       </c>
       <c r="B133" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C133" s="1">
         <v>9.0340984957509304E-5</v>
@@ -14670,7 +18733,7 @@
         <v>16</v>
       </c>
       <c r="B134" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C134" s="1">
         <v>8.6896366471254902E-5</v>
@@ -14768,7 +18831,7 @@
         <v>22</v>
       </c>
       <c r="B135" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C135" s="1">
         <v>8.38386621225992E-5</v>
@@ -14866,7 +18929,7 @@
         <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C136" s="1">
         <v>8.4633849079507296E-4</v>
@@ -14964,7 +19027,7 @@
         <v>83</v>
       </c>
       <c r="B137" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C137" s="1">
         <v>8.3293926824999295E-4</v>
@@ -15062,7 +19125,7 @@
         <v>36</v>
       </c>
       <c r="B138" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C138" s="1">
         <v>6.0419435696118899E-3</v>
@@ -15160,7 +19223,7 @@
         <v>131</v>
       </c>
       <c r="B139" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C139" s="1">
         <v>7.4965756891065406E-5</v>
@@ -15258,7 +19321,7 @@
         <v>122</v>
       </c>
       <c r="B140" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C140" s="1">
         <v>5.0445124650406901E-3</v>
@@ -15356,7 +19419,7 @@
         <v>63</v>
       </c>
       <c r="B141" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C141" s="1">
         <v>7.4222695754116194E-5</v>
@@ -15454,7 +19517,7 @@
         <v>34</v>
       </c>
       <c r="B142" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C142" s="1">
         <v>7.0905390200435806E-2</v>
@@ -15552,7 +19615,7 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C143" s="1">
         <v>6.8499933073747196E-5</v>
@@ -15650,7 +19713,7 @@
         <v>197</v>
       </c>
       <c r="B144" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C144" s="1">
         <v>6.8188048920220405E-5</v>
@@ -15748,7 +19811,7 @@
         <v>118</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C145" s="1">
         <v>6.4935826639430803E-5</v>
@@ -15846,7 +19909,7 @@
         <v>137</v>
       </c>
       <c r="B146" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C146" s="1">
         <v>6.3635082778492594E-5</v>
@@ -15944,7 +20007,7 @@
         <v>106</v>
       </c>
       <c r="B147" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C147" s="1">
         <v>6.0617856383692197E-5</v>
@@ -16042,7 +20105,7 @@
         <v>169</v>
       </c>
       <c r="B148" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C148" s="1">
         <v>6.0582825833432302E-5</v>
@@ -16140,7 +20203,7 @@
         <v>35</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C149" s="1">
         <v>6.16182677534719E-2</v>
@@ -16238,7 +20301,7 @@
         <v>45</v>
       </c>
       <c r="B150" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C150" s="1">
         <v>1.20089302912632E-2</v>
@@ -16336,7 +20399,7 @@
         <v>84</v>
       </c>
       <c r="B151" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C151" s="1">
         <v>5.9550415283130899E-5</v>
@@ -16434,7 +20497,7 @@
         <v>90</v>
       </c>
       <c r="B152" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C152" s="1">
         <v>5.93817581519826E-5</v>
@@ -16532,7 +20595,7 @@
         <v>18</v>
       </c>
       <c r="B153" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C153" s="1">
         <v>5.4932237408739703E-5</v>
@@ -16630,7 +20693,7 @@
         <v>38</v>
       </c>
       <c r="B154" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C154" s="1">
         <v>2.9233135164951501E-2</v>
@@ -16728,7 +20791,7 @@
         <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C155" s="1">
         <v>5.36393361089316E-5</v>
@@ -16826,7 +20889,7 @@
         <v>14</v>
       </c>
       <c r="B156" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C156" s="1">
         <v>4.0414479738758603E-3</v>
@@ -16924,7 +20987,7 @@
         <v>33</v>
       </c>
       <c r="B157" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C157" s="1">
         <v>5.4791644438798102E-4</v>
@@ -17022,7 +21085,7 @@
         <v>155</v>
       </c>
       <c r="B158" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C158" s="1">
         <v>5.0683041107198099E-5</v>
@@ -17120,7 +21183,7 @@
         <v>89</v>
       </c>
       <c r="B159" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C159" s="1">
         <v>4.9580416882865301E-5</v>
@@ -17218,7 +21281,7 @@
         <v>19</v>
       </c>
       <c r="B160" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C160" s="1">
         <v>4.9486799522645301E-5</v>
@@ -17316,7 +21379,7 @@
         <v>53</v>
       </c>
       <c r="B161" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C161" s="1">
         <v>4.8368029803950698E-5</v>
@@ -17414,7 +21477,7 @@
         <v>179</v>
       </c>
       <c r="B162" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C162" s="1">
         <v>4.6112840535595398E-5</v>
@@ -17512,7 +21575,7 @@
         <v>80</v>
       </c>
       <c r="B163" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C163" s="1">
         <v>4.5101084293089497E-5</v>
@@ -17610,7 +21673,7 @@
         <v>85</v>
       </c>
       <c r="B164" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C164" s="1">
         <v>4.1842840511759398E-5</v>
@@ -17708,7 +21771,7 @@
         <v>193</v>
       </c>
       <c r="B165" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C165" s="1">
         <v>1.6565641912723899E-2</v>
@@ -17806,7 +21869,7 @@
         <v>109</v>
       </c>
       <c r="B166" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C166" s="1">
         <v>3.8821336913042197E-5</v>
@@ -17904,7 +21967,7 @@
         <v>97</v>
       </c>
       <c r="B167" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C167" s="1">
         <v>3.8821336913042197E-5</v>
@@ -18002,7 +22065,7 @@
         <v>127</v>
       </c>
       <c r="B168" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C168" s="1">
         <v>3.8535930849835E-5</v>
@@ -18100,7 +22163,7 @@
         <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C169" s="1">
         <v>3.8422939995701603E-5</v>
@@ -18198,7 +22261,7 @@
         <v>136</v>
       </c>
       <c r="B170" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C170" s="1">
         <v>8.8539830201646106E-3</v>
@@ -18296,7 +22359,7 @@
         <v>110</v>
       </c>
       <c r="B171" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C171" s="1">
         <v>3.6714014809936597E-5</v>
@@ -18394,7 +22457,7 @@
         <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C172" s="1">
         <v>3.6032589946085002E-5</v>
@@ -18492,7 +22555,7 @@
         <v>135</v>
       </c>
       <c r="B173" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C173" s="1">
         <v>3.57988061094424E-5</v>
@@ -18590,7 +22653,7 @@
         <v>26</v>
       </c>
       <c r="B174" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C174" s="1">
         <v>9.7850178471333496E-3</v>
@@ -18688,7 +22751,7 @@
         <v>166</v>
       </c>
       <c r="B175" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C175" s="1">
         <v>3.5221489101922199E-5</v>
@@ -18786,7 +22849,7 @@
         <v>191</v>
       </c>
       <c r="B176" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C176" s="1">
         <v>3.0024895114522301E-3</v>
@@ -18884,7 +22947,7 @@
         <v>125</v>
       </c>
       <c r="B177" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C177" s="1">
         <v>3.4333289225307703E-5</v>
@@ -18982,7 +23045,7 @@
         <v>98</v>
       </c>
       <c r="B178" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C178" s="1">
         <v>3.4254760013343202E-5</v>
@@ -19080,7 +23143,7 @@
         <v>112</v>
       </c>
       <c r="B179" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C179" s="1">
         <v>3.3202412539363501E-5</v>
@@ -19178,7 +23241,7 @@
         <v>123</v>
       </c>
       <c r="B180" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C180" s="1">
         <v>2.7297346405541602E-3</v>
@@ -19276,7 +23339,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C181" s="1">
         <v>3.14729182804734E-4</v>
@@ -19374,7 +23437,7 @@
         <v>55</v>
       </c>
       <c r="B182" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C182" s="1">
         <v>2.87893179407294E-5</v>
@@ -19472,7 +23535,7 @@
         <v>139</v>
       </c>
       <c r="B183" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C183" s="1">
         <v>2.87656193119904E-5</v>
@@ -19570,7 +23633,7 @@
         <v>185</v>
       </c>
       <c r="B184" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C184" s="1">
         <v>2.83073489228228E-5</v>
@@ -19668,7 +23731,7 @@
         <v>181</v>
       </c>
       <c r="B185" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C185" s="1">
         <v>6.8638961761405802E-4</v>
@@ -19766,7 +23829,7 @@
         <v>174</v>
       </c>
       <c r="B186" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C186" s="1">
         <v>2.57526195545634E-3</v>
@@ -19864,7 +23927,7 @@
         <v>103</v>
       </c>
       <c r="B187" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C187" s="1">
         <v>1.5693574833310099E-3</v>
@@ -19962,7 +24025,7 @@
         <v>151</v>
       </c>
       <c r="B188" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C188" s="1">
         <v>1.6899182412086999E-2</v>
@@ -20060,7 +24123,7 @@
         <v>100</v>
       </c>
       <c r="B189" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C189" s="1">
         <v>1.7689277934269901E-5</v>
@@ -20158,7 +24221,7 @@
         <v>41</v>
       </c>
       <c r="B190" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C190" s="1">
         <v>8.8499191308709105E-2</v>
@@ -20256,7 +24319,7 @@
         <v>86</v>
       </c>
       <c r="B191" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C191" s="1">
         <v>1.7176005422716E-4</v>
@@ -20354,7 +24417,7 @@
         <v>111</v>
       </c>
       <c r="B192" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C192" s="1">
         <v>1.70645836582565E-4</v>
@@ -20452,7 +24515,7 @@
         <v>15</v>
       </c>
       <c r="B193" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C193" s="1">
         <v>2.1301800075570702E-3</v>
@@ -20550,7 +24613,7 @@
         <v>57</v>
       </c>
       <c r="B194" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C194" s="1">
         <v>2.8292956744064402E-4</v>
@@ -20648,7 +24711,7 @@
         <v>117</v>
       </c>
       <c r="B195" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C195" s="1">
         <v>1.43644872084689E-4</v>
@@ -20746,7 +24809,7 @@
         <v>184</v>
       </c>
       <c r="B196" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C196" s="1">
         <v>2.40568201690602E-4</v>
@@ -20844,7 +24907,7 @@
         <v>13</v>
       </c>
       <c r="B197" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C197" s="1">
         <v>1.1859843639161E-5</v>
@@ -20942,7 +25005,7 @@
         <v>102</v>
       </c>
       <c r="B198" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C198" s="1">
         <v>1.01687731354201E-5</v>
@@ -21040,7 +25103,7 @@
         <v>145</v>
       </c>
       <c r="B199" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C199" s="1">
         <v>1.7989797095429301E-3</v>
